--- a/app/data/Reference Data for CS Mid Tier and Higher Tier Options and Capital Items.xlsx
+++ b/app/data/Reference Data for CS Mid Tier and Higher Tier Options and Capital Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattfielding/projects/defra/local-nature-recovery-prototype/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88566431-1DB1-D443-B4A2-B0453DE259FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DC8065-8D4D-6642-8D87-BE339F306844}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="760" windowWidth="42860" windowHeight="25100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="grants" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">grants!$A$1:$L$237</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">grants!$A$1:$M$237</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="912">
   <si>
     <t>Option</t>
   </si>
@@ -2609,12 +2609,6 @@
     <t>url</t>
   </si>
   <si>
-    <t>hectares</t>
-  </si>
-  <si>
-    <t>tonne</t>
-  </si>
-  <si>
     <t>calc</t>
   </si>
   <si>
@@ -2630,9 +2624,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>meters</t>
-  </si>
-  <si>
     <t>multiplier</t>
   </si>
   <si>
@@ -2642,69 +2633,24 @@
     <t>veteran trees</t>
   </si>
   <si>
-    <t>visits</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
-    <t>gates</t>
-  </si>
-  <si>
-    <t>square meters</t>
-  </si>
-  <si>
     <t>m2</t>
   </si>
   <si>
     <t>items</t>
   </si>
   <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>pump</t>
-  </si>
-  <si>
-    <t>trough</t>
-  </si>
-  <si>
-    <t>plans</t>
-  </si>
-  <si>
-    <t>gateways</t>
-  </si>
-  <si>
     <t>units (dam / barrier)</t>
   </si>
   <si>
-    <t>dams</t>
-  </si>
-  <si>
-    <t>cubic meters</t>
-  </si>
-  <si>
     <t>m3</t>
   </si>
   <si>
     <t>varieties</t>
   </si>
   <si>
-    <t>stumps</t>
-  </si>
-  <si>
     <t>unit (tree shelter)</t>
   </si>
   <si>
-    <t>guards</t>
-  </si>
-  <si>
-    <t>boxes</t>
-  </si>
-  <si>
-    <t>ponds</t>
-  </si>
-  <si>
     <t>squared meters</t>
   </si>
   <si>
@@ -2714,9 +2660,6 @@
     <t>A unit is 100m of bund</t>
   </si>
   <si>
-    <t>blocks</t>
-  </si>
-  <si>
     <t>cost</t>
   </si>
   <si>
@@ -2741,16 +2684,91 @@
     <t>units (pit)</t>
   </si>
   <si>
-    <t>crossing</t>
-  </si>
-  <si>
-    <t>machines</t>
-  </si>
-  <si>
-    <t>drains</t>
-  </si>
-  <si>
-    <t>culverts</t>
+    <t>hectare,hectares</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>hectare, hectares</t>
+  </si>
+  <si>
+    <t>meter, meters</t>
+  </si>
+  <si>
+    <t>cubic meter, cubic meters</t>
+  </si>
+  <si>
+    <t>square meter, square meters</t>
+  </si>
+  <si>
+    <t>dam, dams</t>
+  </si>
+  <si>
+    <t>crossing, crossings</t>
+  </si>
+  <si>
+    <t>machine, machines</t>
+  </si>
+  <si>
+    <t>unit, units</t>
+  </si>
+  <si>
+    <t>gateway, gateways</t>
+  </si>
+  <si>
+    <t>plan, plans</t>
+  </si>
+  <si>
+    <t>drain, drains</t>
+  </si>
+  <si>
+    <t>culvert, culverts</t>
+  </si>
+  <si>
+    <t>base, bases</t>
+  </si>
+  <si>
+    <t>pump, pumps</t>
+  </si>
+  <si>
+    <t>trough, troughs</t>
+  </si>
+  <si>
+    <t>item, items</t>
+  </si>
+  <si>
+    <t>gate, gates</t>
+  </si>
+  <si>
+    <t>visit, visits</t>
+  </si>
+  <si>
+    <t>tonne, tonnes</t>
+  </si>
+  <si>
+    <t>tonnes</t>
+  </si>
+  <si>
+    <t>tree, trees</t>
+  </si>
+  <si>
+    <t>pond, ponds</t>
+  </si>
+  <si>
+    <t>block, blocks</t>
+  </si>
+  <si>
+    <t>box, boxes</t>
+  </si>
+  <si>
+    <t>stump, stumps</t>
+  </si>
+  <si>
+    <t>guard, guards</t>
+  </si>
+  <si>
+    <t>What's the size of your land in hectares (ha)</t>
   </si>
 </sst>
 </file>
@@ -3588,10 +3606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI246"/>
+  <dimension ref="A1:AJ246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3599,13 +3617,13 @@
     <col min="2" max="2" width="40.140625" style="3" customWidth="1"/>
     <col min="3" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="29.140625" style="3" customWidth="1"/>
-    <col min="7" max="8" width="18.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="110" customWidth="1"/>
+    <col min="7" max="9" width="18.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="110" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>856</v>
       </c>
@@ -3616,34 +3634,37 @@
         <v>854</v>
       </c>
       <c r="D1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E1" t="s">
         <v>853</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>851</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3654,31 +3675,34 @@
         <v>511</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>858</v>
+        <v>883</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3689,31 +3713,31 @@
         <v>640</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>858</v>
+        <v>883</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3724,31 +3748,31 @@
         <v>532</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>858</v>
+        <v>883</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3759,31 +3783,31 @@
         <v>632</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>859</v>
+        <v>903</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>863</v>
+        <v>904</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>15</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3794,31 +3818,31 @@
         <v>100</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>19</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3829,31 +3853,31 @@
         <v>266</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>23</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3864,31 +3888,31 @@
         <v>522</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>27</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -3899,31 +3923,31 @@
         <v>550</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>31</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -3934,32 +3958,33 @@
         <v>84</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3"/>
+      <c r="J10" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -3970,32 +3995,33 @@
         <v>573</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="3"/>
+      <c r="J11" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -4008,26 +4034,27 @@
       <c r="D12" s="15"/>
       <c r="E12" s="12"/>
       <c r="F12" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="3"/>
+      <c r="J12" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -4038,32 +4065,33 @@
         <v>524</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3"/>
+      <c r="J13" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -4074,32 +4102,33 @@
         <v>436</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>
       </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="3"/>
+      <c r="J14" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -4110,32 +4139,33 @@
         <v>495</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3"/>
+      <c r="J15" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -4146,31 +4176,31 @@
         <v>539</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G16" s="3">
         <v>1</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>59</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -4181,31 +4211,31 @@
         <v>640</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>63</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>780</v>
       </c>
@@ -4217,14 +4247,14 @@
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="11"/>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>721</v>
       </c>
@@ -4239,14 +4269,14 @@
       <c r="F19" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -4257,31 +4287,31 @@
         <v>420</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>67</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -4292,31 +4322,31 @@
         <v>190</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>71</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -4327,34 +4357,34 @@
         <v>8</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G22" s="3">
         <v>0.01</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>75</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>488</v>
       </c>
@@ -4365,31 +4395,31 @@
         <v>212</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G23" s="3">
         <v>1</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>490</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>670</v>
       </c>
@@ -4400,25 +4430,25 @@
         <v>281</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>611</v>
       </c>
@@ -4429,25 +4459,26 @@
         <v>221</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G25" s="4">
         <v>1</v>
       </c>
       <c r="H25" s="4"/>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>492</v>
       </c>
@@ -4458,29 +4489,29 @@
         <v>62</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G26" s="3">
         <v>1</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>494</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -4491,31 +4522,31 @@
         <v>31</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G27" s="3">
         <v>1</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>79</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
@@ -4526,31 +4557,31 @@
         <v>3.4</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G28" s="3">
         <v>1</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>83</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -4561,31 +4592,31 @@
         <v>11.6</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G29" s="3">
         <v>1</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>563</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -4596,31 +4627,31 @@
         <v>25</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G30" s="3">
         <v>1</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>90</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -4631,31 +4662,31 @@
         <v>3.6</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G31" s="3">
         <v>1</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>94</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -4666,31 +4697,31 @@
         <v>44</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G32" s="3">
         <v>1</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>98</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -4701,31 +4732,31 @@
         <v>86</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>79</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -4736,31 +4767,31 @@
         <v>13.5</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>105</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -4771,31 +4802,31 @@
         <v>7</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G35" s="3">
         <v>1</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>109</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>111</v>
       </c>
@@ -4806,31 +4837,31 @@
         <v>9.4</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G36" s="3">
         <v>1</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>83</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -4841,31 +4872,31 @@
         <v>4</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G37" s="3">
         <v>1</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>116</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -4876,31 +4907,31 @@
         <v>9.5</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G38" s="3">
         <v>1</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>120</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -4911,31 +4942,31 @@
         <v>3</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G39" s="3">
         <v>1</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>124</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>778</v>
       </c>
@@ -4946,25 +4977,25 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G40" s="3">
         <v>1</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>669</v>
       </c>
@@ -4975,28 +5006,29 @@
         <v>217</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G41" s="3">
         <v>1</v>
       </c>
       <c r="H41" s="3"/>
-      <c r="I41" s="3" t="s">
+      <c r="I41" s="3"/>
+      <c r="J41" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K41"/>
       <c r="L41"/>
-    </row>
-    <row r="42" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="M41"/>
+    </row>
+    <row r="42" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>719</v>
       </c>
@@ -5007,28 +5039,29 @@
         <v>314</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G42" s="3">
         <v>1</v>
       </c>
       <c r="H42" s="3"/>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="3"/>
+      <c r="J42" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K42"/>
       <c r="L42"/>
-    </row>
-    <row r="43" spans="1:12" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="M42"/>
+    </row>
+    <row r="43" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>666</v>
       </c>
@@ -5039,28 +5072,29 @@
         <v>77</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G43" s="3">
         <v>1</v>
       </c>
       <c r="H43" s="3"/>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="3"/>
+      <c r="J43" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K43"/>
       <c r="L43"/>
-    </row>
-    <row r="44" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="M43"/>
+    </row>
+    <row r="44" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>662</v>
       </c>
@@ -5071,28 +5105,29 @@
         <v>442</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G44" s="3">
         <v>1</v>
       </c>
       <c r="H44" s="3"/>
-      <c r="I44" s="3" t="s">
+      <c r="I44" s="3"/>
+      <c r="J44" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K44"/>
       <c r="L44"/>
-    </row>
-    <row r="45" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M44"/>
+    </row>
+    <row r="45" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>717</v>
       </c>
@@ -5103,25 +5138,25 @@
         <v>271</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>829</v>
       </c>
@@ -5132,25 +5167,25 @@
         <v>117</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G46" s="3">
         <v>1</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="J46" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="K46" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>716</v>
       </c>
@@ -5161,25 +5196,25 @@
         <v>276</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G47" s="3">
         <v>1</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>559</v>
       </c>
@@ -5190,27 +5225,27 @@
         <v>290</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>869</v>
+        <v>902</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G48" s="3">
         <v>1</v>
       </c>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6" t="s">
+      <c r="J48" s="6"/>
+      <c r="K48" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="K48" s="5" t="s">
+      <c r="L48" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="L48" s="5" t="s">
+      <c r="M48" s="5" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>126</v>
       </c>
@@ -5221,31 +5256,31 @@
         <v>4</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G49" s="3">
         <v>1</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="K49" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>128</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>772</v>
       </c>
@@ -5256,25 +5291,25 @@
         <v>5.2</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G50" s="3">
         <v>1</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>627</v>
       </c>
@@ -5285,23 +5320,23 @@
         <v>136</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>870</v>
+        <v>892</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G51" s="3">
         <v>1</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="K51" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>523</v>
       </c>
@@ -5312,29 +5347,29 @@
         <v>390</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>871</v>
+        <v>901</v>
       </c>
       <c r="E52" s="13"/>
       <c r="F52" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G52" s="3">
         <v>1</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="J52" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="J52" s="6" t="s">
+      <c r="K52" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="K52" s="5" t="s">
+      <c r="L52" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="L52" s="5" t="s">
+      <c r="M52" s="5" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>526</v>
       </c>
@@ -5345,29 +5380,29 @@
         <v>135</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>871</v>
+        <v>901</v>
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G53" s="3">
         <v>1</v>
       </c>
-      <c r="I53" s="6" t="s">
+      <c r="J53" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="J53" s="6" t="s">
+      <c r="K53" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="K53" s="5" t="s">
+      <c r="L53" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="L53" s="5" t="s">
+      <c r="M53" s="5" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>130</v>
       </c>
@@ -5378,29 +5413,29 @@
         <v>240</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>871</v>
+        <v>901</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G54" s="3">
         <v>1</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="J54" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="K54" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>132</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>134</v>
       </c>
@@ -5411,31 +5446,31 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="J55" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="K55" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>136</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>138</v>
       </c>
@@ -5446,31 +5481,31 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="J56" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="K56" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>128</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>519</v>
       </c>
@@ -5481,31 +5516,31 @@
         <v>2.5</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G57" s="3">
         <v>1</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="J57" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="J57" s="6" t="s">
+      <c r="K57" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="K57" s="5" t="s">
+      <c r="L57" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="L57" s="5" t="s">
+      <c r="M57" s="5" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>644</v>
       </c>
@@ -5516,25 +5551,25 @@
         <v>1.24</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G58" s="3">
         <v>1</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>777</v>
       </c>
@@ -5545,25 +5580,25 @@
         <v>11.1</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G59" s="3">
         <v>1</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="J59" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="K59" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>773</v>
       </c>
@@ -5574,25 +5609,25 @@
         <v>2.85</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G60" s="3">
         <v>1</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="J60" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="K60" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>642</v>
       </c>
@@ -5603,25 +5638,25 @@
         <v>7.2</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G61" s="3">
         <v>1</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="J61" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="K61" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>768</v>
       </c>
@@ -5633,14 +5668,14 @@
       </c>
       <c r="D62" s="15"/>
       <c r="E62" s="11"/>
-      <c r="I62" s="3" t="s">
+      <c r="J62" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="K62" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>713</v>
       </c>
@@ -5652,14 +5687,14 @@
       </c>
       <c r="D63" s="15"/>
       <c r="E63" s="11"/>
-      <c r="I63" s="3" t="s">
+      <c r="J63" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="K63" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>767</v>
       </c>
@@ -5670,23 +5705,23 @@
         <v>300</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>870</v>
+        <v>892</v>
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G64" s="3">
         <v>1</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="J64" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="K64" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>639</v>
       </c>
@@ -5698,14 +5733,14 @@
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
-      <c r="I65" s="3" t="s">
+      <c r="J65" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="K65" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>141</v>
       </c>
@@ -5716,31 +5751,31 @@
         <v>365</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G66" s="3">
         <v>1</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="J66" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="K66" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>143</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>504</v>
       </c>
@@ -5751,31 +5786,31 @@
         <v>157</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G67" s="3">
         <v>1</v>
       </c>
-      <c r="I67" s="4" t="s">
+      <c r="J67" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="J67" s="4" t="s">
+      <c r="K67" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>506</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>660</v>
       </c>
@@ -5786,25 +5821,25 @@
         <v>406</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G68" s="3">
         <v>1</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="J68" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="K68" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>659</v>
       </c>
@@ -5815,25 +5850,25 @@
         <v>310</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G69" s="3">
         <v>1</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="J69" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="J69" s="3" t="s">
+      <c r="K69" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>621</v>
       </c>
@@ -5844,25 +5879,25 @@
         <v>90</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G70" s="3">
         <v>1</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="J70" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="K70" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>622</v>
       </c>
@@ -5873,25 +5908,25 @@
         <v>253</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G71" s="3">
         <v>1</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="J71" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="J71" s="3" t="s">
+      <c r="K71" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>169</v>
       </c>
@@ -5902,31 +5937,31 @@
         <v>85</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G72" s="3">
         <v>1</v>
       </c>
-      <c r="I72" s="3" t="s">
+      <c r="J72" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="K72" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>171</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>145</v>
       </c>
@@ -5937,31 +5972,31 @@
         <v>73</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G73" s="3">
         <v>1</v>
       </c>
-      <c r="I73" s="3" t="s">
+      <c r="J73" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="J73" s="3" t="s">
+      <c r="K73" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>147</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>149</v>
       </c>
@@ -5972,31 +6007,31 @@
         <v>44</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G74" s="3">
         <v>1</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="J74" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="K74" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>151</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>153</v>
       </c>
@@ -6007,31 +6042,31 @@
         <v>95</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G75" s="3">
         <v>1</v>
       </c>
-      <c r="I75" s="4" t="s">
+      <c r="J75" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="J75" s="4" t="s">
+      <c r="K75" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K75" s="1" t="s">
+      <c r="L75" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="M75" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>157</v>
       </c>
@@ -6042,31 +6077,31 @@
         <v>331</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G76" s="3">
         <v>1</v>
       </c>
-      <c r="I76" s="4" t="s">
+      <c r="J76" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="J76" s="3" t="s">
+      <c r="K76" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="L76" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="M76" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>161</v>
       </c>
@@ -6077,32 +6112,33 @@
         <v>309</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G77" s="3">
         <v>1</v>
       </c>
       <c r="H77" s="3"/>
-      <c r="I77" s="4" t="s">
+      <c r="I77" s="3"/>
+      <c r="J77" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="J77" s="3" t="s">
+      <c r="K77" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K77" s="1" t="s">
+      <c r="L77" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L77" s="1" t="s">
+      <c r="M77" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>165</v>
       </c>
@@ -6113,31 +6149,31 @@
         <v>16</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G78" s="3">
         <v>1</v>
       </c>
-      <c r="I78" s="4" t="s">
+      <c r="J78" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="J78" s="4" t="s">
+      <c r="K78" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="L78" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="M78" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>496</v>
       </c>
@@ -6148,31 +6184,31 @@
         <v>182</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G79" s="3">
         <v>1</v>
       </c>
-      <c r="I79" s="4" t="s">
+      <c r="J79" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="J79" s="4" t="s">
+      <c r="K79" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>498</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>615</v>
       </c>
@@ -6183,25 +6219,25 @@
         <v>145</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G80" s="3">
         <v>1</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="J80" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="K80" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>618</v>
       </c>
@@ -6212,25 +6248,25 @@
         <v>267</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G81" s="3">
         <v>1</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="J81" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="J81" s="3" t="s">
+      <c r="K81" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>500</v>
       </c>
@@ -6241,31 +6277,31 @@
         <v>264</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G82" s="3">
         <v>1</v>
       </c>
-      <c r="I82" s="4" t="s">
+      <c r="J82" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="K82" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>502</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>712</v>
       </c>
@@ -6277,14 +6313,14 @@
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="11"/>
-      <c r="I83" s="3" t="s">
+      <c r="J83" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>763</v>
       </c>
@@ -6295,23 +6331,23 @@
         <v>290</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>874</v>
+        <v>900</v>
       </c>
       <c r="E84" s="11"/>
       <c r="F84" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G84" s="3">
         <v>1</v>
       </c>
-      <c r="I84" s="3" t="s">
+      <c r="J84" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="J84" s="3" t="s">
+      <c r="K84" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>173</v>
       </c>
@@ -6322,31 +6358,31 @@
         <v>3.25</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G85" s="3">
         <v>1</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="J85" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="K85" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>175</v>
       </c>
-      <c r="L85" t="s">
+      <c r="M85" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>177</v>
       </c>
@@ -6357,31 +6393,31 @@
         <v>425</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G86" s="3">
         <v>1</v>
       </c>
-      <c r="I86" s="3" t="s">
+      <c r="J86" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="J86" s="3" t="s">
+      <c r="K86" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>179</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -6392,31 +6428,31 @@
         <v>79</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G87" s="3">
         <v>1</v>
       </c>
-      <c r="I87" s="3" t="s">
+      <c r="J87" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="J87" s="3" t="s">
+      <c r="K87" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>183</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>185</v>
       </c>
@@ -6427,31 +6463,31 @@
         <v>137</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G88" s="3">
         <v>1</v>
       </c>
-      <c r="I88" s="3" t="s">
+      <c r="J88" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="J88" s="3" t="s">
+      <c r="K88" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>187</v>
       </c>
-      <c r="L88" t="s">
+      <c r="M88" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>189</v>
       </c>
@@ -6462,31 +6498,31 @@
         <v>30</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G89" s="3">
         <v>1</v>
       </c>
-      <c r="I89" s="3" t="s">
+      <c r="J89" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="J89" s="3" t="s">
+      <c r="K89" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>191</v>
       </c>
-      <c r="L89" t="s">
+      <c r="M89" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>193</v>
       </c>
@@ -6497,31 +6533,31 @@
         <v>440</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G90" s="3">
         <v>1</v>
       </c>
-      <c r="I90" s="3" t="s">
+      <c r="J90" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="J90" s="3" t="s">
+      <c r="K90" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>195</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="91" spans="1:12" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>710</v>
       </c>
@@ -6532,28 +6568,29 @@
         <v>440</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G91" s="3">
         <v>1</v>
       </c>
       <c r="H91" s="3"/>
-      <c r="I91" s="3" t="s">
+      <c r="I91" s="3"/>
+      <c r="J91" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="K91" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K91"/>
       <c r="L91"/>
-    </row>
-    <row r="92" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="M91"/>
+    </row>
+    <row r="92" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>197</v>
       </c>
@@ -6564,32 +6601,33 @@
         <v>6.73</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G92" s="3">
         <v>1</v>
       </c>
       <c r="H92" s="3"/>
-      <c r="I92" s="3" t="s">
+      <c r="I92" s="3"/>
+      <c r="J92" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="J92" s="3" t="s">
+      <c r="K92" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K92" t="s">
+      <c r="L92" t="s">
         <v>175</v>
       </c>
-      <c r="L92" t="s">
+      <c r="M92" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="93" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>200</v>
       </c>
@@ -6600,32 +6638,33 @@
         <v>174</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G93" s="3">
         <v>1</v>
       </c>
       <c r="H93" s="3"/>
-      <c r="I93" s="3" t="s">
+      <c r="I93" s="3"/>
+      <c r="J93" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="J93" s="3" t="s">
+      <c r="K93" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K93" t="s">
+      <c r="L93" t="s">
         <v>202</v>
       </c>
-      <c r="L93" t="s">
+      <c r="M93" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="94" spans="1:12" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>734</v>
       </c>
@@ -6636,28 +6675,29 @@
         <v>274</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G94" s="3">
         <v>1</v>
       </c>
       <c r="H94" s="3"/>
-      <c r="I94" s="3" t="s">
+      <c r="I94" s="3"/>
+      <c r="J94" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K94"/>
       <c r="L94"/>
-    </row>
-    <row r="95" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="M94"/>
+    </row>
+    <row r="95" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>732</v>
       </c>
@@ -6668,25 +6708,25 @@
         <v>184</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G95" s="3">
         <v>1</v>
       </c>
-      <c r="I95" s="3" t="s">
+      <c r="J95" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="J95" s="3" t="s">
+      <c r="K95" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>624</v>
       </c>
@@ -6697,25 +6737,25 @@
         <v>517</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G96" s="3">
         <v>1</v>
       </c>
-      <c r="I96" s="3" t="s">
+      <c r="J96" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="J96" s="3" t="s">
+      <c r="K96" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>761</v>
       </c>
@@ -6726,23 +6766,23 @@
         <v>835</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="E97" s="11"/>
       <c r="F97" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G97" s="3">
         <v>1</v>
       </c>
-      <c r="I97" s="3" t="s">
+      <c r="J97" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="J97" s="3" t="s">
+      <c r="K97" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>758</v>
       </c>
@@ -6754,14 +6794,14 @@
       </c>
       <c r="D98" s="15"/>
       <c r="E98" s="11"/>
-      <c r="I98" s="3" t="s">
+      <c r="J98" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="J98" s="3" t="s">
+      <c r="K98" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>204</v>
       </c>
@@ -6772,29 +6812,29 @@
         <v>110</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>875</v>
+        <v>897</v>
       </c>
       <c r="E99" s="11"/>
       <c r="F99" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G99" s="3">
         <v>1</v>
       </c>
-      <c r="I99" s="3" t="s">
+      <c r="J99" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="J99" s="3" t="s">
+      <c r="K99" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K99" t="s">
+      <c r="L99" t="s">
         <v>206</v>
       </c>
-      <c r="L99" t="s">
+      <c r="M99" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>208</v>
       </c>
@@ -6805,29 +6845,29 @@
         <v>170</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>875</v>
+        <v>897</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G100" s="3">
         <v>1</v>
       </c>
-      <c r="I100" s="3" t="s">
+      <c r="J100" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K100" t="s">
+      <c r="L100" t="s">
         <v>210</v>
       </c>
-      <c r="L100" t="s">
+      <c r="M100" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>212</v>
       </c>
@@ -6838,29 +6878,29 @@
         <v>220</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>876</v>
+        <v>898</v>
       </c>
       <c r="E101" s="11"/>
       <c r="F101" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G101" s="3">
         <v>1</v>
       </c>
-      <c r="I101" s="3" t="s">
+      <c r="J101" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K101" t="s">
+      <c r="L101" t="s">
         <v>214</v>
       </c>
-      <c r="L101" t="s">
+      <c r="M101" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>216</v>
       </c>
@@ -6871,30 +6911,31 @@
         <v>1480</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>876</v>
+        <v>898</v>
       </c>
       <c r="E102" s="11"/>
       <c r="F102" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G102" s="3">
         <v>1</v>
       </c>
       <c r="H102" s="3"/>
-      <c r="I102" s="3" t="s">
+      <c r="I102" s="3"/>
+      <c r="J102" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="J102" s="3" t="s">
+      <c r="K102" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K102" t="s">
+      <c r="L102" t="s">
         <v>214</v>
       </c>
-      <c r="L102" t="s">
+      <c r="M102" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="103" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>219</v>
       </c>
@@ -6905,30 +6946,31 @@
         <v>110</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>877</v>
+        <v>899</v>
       </c>
       <c r="E103" s="11"/>
       <c r="F103" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G103" s="3">
         <v>1</v>
       </c>
       <c r="H103" s="3"/>
-      <c r="I103" s="3" t="s">
+      <c r="I103" s="3"/>
+      <c r="J103" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="J103" s="3" t="s">
+      <c r="K103" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K103" t="s">
+      <c r="L103" t="s">
         <v>221</v>
       </c>
-      <c r="L103" t="s">
+      <c r="M103" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="104" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>223</v>
       </c>
@@ -6939,32 +6981,33 @@
         <v>2.65</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G104" s="3">
         <v>1</v>
       </c>
       <c r="H104" s="3"/>
-      <c r="I104" s="3" t="s">
+      <c r="I104" s="3"/>
+      <c r="J104" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="J104" s="3" t="s">
+      <c r="K104" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K104" t="s">
+      <c r="L104" t="s">
         <v>214</v>
       </c>
-      <c r="L104" t="s">
+      <c r="M104" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>226</v>
       </c>
@@ -6975,32 +7018,33 @@
         <v>116</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G105" s="3">
         <v>1</v>
       </c>
       <c r="H105" s="3"/>
-      <c r="I105" s="3" t="s">
+      <c r="I105" s="3"/>
+      <c r="J105" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="J105" s="3" t="s">
+      <c r="K105" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K105" t="s">
+      <c r="L105" t="s">
         <v>228</v>
       </c>
-      <c r="L105" t="s">
+      <c r="M105" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="106" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>230</v>
       </c>
@@ -7011,32 +7055,33 @@
         <v>640</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G106" s="3">
         <v>1</v>
       </c>
       <c r="H106" s="3"/>
-      <c r="I106" s="3" t="s">
+      <c r="I106" s="3"/>
+      <c r="J106" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="J106" s="3" t="s">
+      <c r="K106" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K106" t="s">
+      <c r="L106" t="s">
         <v>232</v>
       </c>
-      <c r="L106" t="s">
+      <c r="M106" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="107" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>234</v>
       </c>
@@ -7053,20 +7098,21 @@
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
-      <c r="I107" s="3" t="s">
+      <c r="I107" s="3"/>
+      <c r="J107" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="J107" s="3" t="s">
+      <c r="K107" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K107" t="s">
+      <c r="L107" t="s">
         <v>236</v>
       </c>
-      <c r="L107" t="s">
+      <c r="M107" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="108" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>238</v>
       </c>
@@ -7077,32 +7123,33 @@
         <v>115</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G108" s="3">
         <v>1</v>
       </c>
       <c r="H108" s="3"/>
-      <c r="I108" s="3" t="s">
+      <c r="I108" s="3"/>
+      <c r="J108" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="J108" s="3" t="s">
+      <c r="K108" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K108" t="s">
+      <c r="L108" t="s">
         <v>240</v>
       </c>
-      <c r="L108" t="s">
+      <c r="M108" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="109" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>242</v>
       </c>
@@ -7113,32 +7160,33 @@
         <v>86</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G109" s="3">
         <v>1</v>
       </c>
       <c r="H109" s="3"/>
-      <c r="I109" s="3" t="s">
+      <c r="I109" s="3"/>
+      <c r="J109" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="J109" s="3" t="s">
+      <c r="K109" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K109" t="s">
+      <c r="L109" t="s">
         <v>244</v>
       </c>
-      <c r="L109" t="s">
+      <c r="M109" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="110" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>246</v>
       </c>
@@ -7149,32 +7197,33 @@
         <v>40</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G110" s="3">
         <v>1</v>
       </c>
       <c r="H110" s="3"/>
-      <c r="I110" s="3" t="s">
+      <c r="I110" s="3"/>
+      <c r="J110" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="J110" s="3" t="s">
+      <c r="K110" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K110" t="s">
+      <c r="L110" t="s">
         <v>248</v>
       </c>
-      <c r="L110" t="s">
+      <c r="M110" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="111" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>250</v>
       </c>
@@ -7185,32 +7234,33 @@
         <v>20</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G111" s="3">
         <v>1</v>
       </c>
       <c r="H111" s="3"/>
-      <c r="I111" s="3" t="s">
+      <c r="I111" s="3"/>
+      <c r="J111" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="J111" s="3" t="s">
+      <c r="K111" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K111" t="s">
+      <c r="L111" t="s">
         <v>252</v>
       </c>
-      <c r="L111" t="s">
+      <c r="M111" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="112" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>254</v>
       </c>
@@ -7221,32 +7271,33 @@
         <v>65</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G112" s="3">
         <v>1</v>
       </c>
       <c r="H112" s="3"/>
-      <c r="I112" s="3" t="s">
+      <c r="I112" s="3"/>
+      <c r="J112" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="J112" s="3" t="s">
+      <c r="K112" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K112" t="s">
+      <c r="L112" t="s">
         <v>256</v>
       </c>
-      <c r="L112" t="s">
+      <c r="M112" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="113" spans="1:35" ht="17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:36" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>258</v>
       </c>
@@ -7257,31 +7308,31 @@
         <v>200</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G113" s="3">
         <v>1</v>
       </c>
-      <c r="I113" s="3" t="s">
+      <c r="J113" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="J113" s="3" t="s">
+      <c r="K113" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K113" t="s">
+      <c r="L113" t="s">
         <v>260</v>
       </c>
-      <c r="L113" t="s">
+      <c r="M113" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="114" spans="1:35" ht="34" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>262</v>
       </c>
@@ -7292,31 +7343,31 @@
         <v>300</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G114" s="3">
         <v>1</v>
       </c>
-      <c r="I114" s="3" t="s">
+      <c r="J114" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="J114" s="3" t="s">
+      <c r="K114" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K114" t="s">
+      <c r="L114" t="s">
         <v>264</v>
       </c>
-      <c r="L114" t="s">
+      <c r="M114" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="115" spans="1:35" ht="34" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>266</v>
       </c>
@@ -7327,31 +7378,31 @@
         <v>8</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G115" s="3">
         <v>1</v>
       </c>
-      <c r="I115" s="3" t="s">
+      <c r="J115" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="J115" s="3" t="s">
+      <c r="K115" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K115" t="s">
+      <c r="L115" t="s">
         <v>268</v>
       </c>
-      <c r="L115" t="s">
+      <c r="M115" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="116" spans="1:35" ht="34" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>800</v>
       </c>
@@ -7362,23 +7413,23 @@
         <v>1100</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="E116" s="11"/>
       <c r="F116" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G116" s="3">
         <v>1</v>
       </c>
-      <c r="I116" s="3" t="s">
+      <c r="J116" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="J116" s="3" t="s">
+      <c r="K116" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="117" spans="1:35" ht="34" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>801</v>
       </c>
@@ -7390,14 +7441,14 @@
       </c>
       <c r="D117" s="15"/>
       <c r="E117" s="11"/>
-      <c r="I117" s="3" t="s">
+      <c r="J117" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="J117" s="3" t="s">
+      <c r="K117" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="118" spans="1:35" ht="34" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>802</v>
       </c>
@@ -7412,14 +7463,14 @@
       <c r="F118" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="I118" s="3" t="s">
+      <c r="J118" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="J118" s="3" t="s">
+      <c r="K118" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="119" spans="1:35" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:36" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>270</v>
       </c>
@@ -7430,29 +7481,29 @@
         <v>92</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>879</v>
+        <v>893</v>
       </c>
       <c r="E119" s="11"/>
       <c r="F119" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G119" s="3">
         <v>1</v>
       </c>
-      <c r="I119" s="3" t="s">
+      <c r="J119" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="J119" s="3" t="s">
+      <c r="K119" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K119" t="s">
+      <c r="L119" t="s">
         <v>272</v>
       </c>
-      <c r="L119" t="s">
+      <c r="M119" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="120" spans="1:35" ht="34" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>274</v>
       </c>
@@ -7463,29 +7514,29 @@
         <v>75</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="E120" s="11"/>
       <c r="F120" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G120" s="3">
         <v>1</v>
       </c>
-      <c r="I120" s="3" t="s">
+      <c r="J120" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="J120" s="3" t="s">
+      <c r="K120" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K120" t="s">
+      <c r="L120" t="s">
         <v>276</v>
       </c>
-      <c r="L120" t="s">
+      <c r="M120" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="121" spans="1:35" ht="34" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>278</v>
       </c>
@@ -7496,31 +7547,31 @@
         <v>5.95</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G121" s="3">
         <v>1</v>
       </c>
-      <c r="I121" s="3" t="s">
+      <c r="J121" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="J121" s="3" t="s">
+      <c r="K121" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K121" t="s">
+      <c r="L121" t="s">
         <v>280</v>
       </c>
-      <c r="L121" t="s">
+      <c r="M121" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="122" spans="1:35" ht="34" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>282</v>
       </c>
@@ -7531,29 +7582,29 @@
         <v>42</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G122" s="3">
         <v>1</v>
       </c>
-      <c r="I122" s="3" t="s">
+      <c r="J122" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="J122" s="3" t="s">
+      <c r="K122" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K122" t="s">
+      <c r="L122" t="s">
         <v>284</v>
       </c>
-      <c r="L122" t="s">
+      <c r="M122" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="123" spans="1:35" ht="17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:36" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>286</v>
       </c>
@@ -7564,31 +7615,31 @@
         <v>5.5</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G123" s="3">
         <v>1</v>
       </c>
-      <c r="I123" s="3" t="s">
+      <c r="J123" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="J123" s="3" t="s">
+      <c r="K123" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K123" t="s">
+      <c r="L123" t="s">
         <v>288</v>
       </c>
-      <c r="L123" t="s">
+      <c r="M123" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="124" spans="1:35" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:36" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>290</v>
       </c>
@@ -7599,29 +7650,29 @@
         <v>200</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>901</v>
+        <v>882</v>
       </c>
       <c r="E124" s="11"/>
       <c r="F124" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G124" s="3">
         <v>1</v>
       </c>
-      <c r="I124" s="3" t="s">
+      <c r="J124" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="J124" s="3" t="s">
+      <c r="K124" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K124" t="s">
+      <c r="L124" t="s">
         <v>288</v>
       </c>
-      <c r="L124" t="s">
+      <c r="M124" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="125" spans="1:35" ht="17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:36" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>293</v>
       </c>
@@ -7632,31 +7683,31 @@
         <v>27.14</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G125" s="3">
         <v>1</v>
       </c>
-      <c r="I125" s="4" t="s">
+      <c r="J125" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="J125" s="3" t="s">
+      <c r="K125" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K125" s="1" t="s">
+      <c r="L125" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="L125" s="1" t="s">
+      <c r="M125" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="126" spans="1:35" ht="34" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>297</v>
       </c>
@@ -7667,31 +7718,31 @@
         <v>11.4</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G126" s="3">
         <v>1</v>
       </c>
-      <c r="I126" s="3" t="s">
+      <c r="J126" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="J126" s="3" t="s">
+      <c r="K126" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K126" t="s">
+      <c r="L126" t="s">
         <v>299</v>
       </c>
-      <c r="L126" t="s">
+      <c r="M126" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="127" spans="1:35" ht="34" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>301</v>
       </c>
@@ -7702,31 +7753,31 @@
         <v>350</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G127" s="3">
         <v>1</v>
       </c>
-      <c r="I127" s="3" t="s">
+      <c r="J127" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="J127" s="3" t="s">
+      <c r="K127" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K127" t="s">
+      <c r="L127" t="s">
         <v>303</v>
       </c>
-      <c r="L127" t="s">
+      <c r="M127" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="128" spans="1:35" ht="34" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>305</v>
       </c>
@@ -7737,30 +7788,29 @@
         <v>100</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G128" s="3">
         <v>1</v>
       </c>
-      <c r="I128" s="3" t="s">
+      <c r="J128" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="J128" s="3" t="s">
+      <c r="K128" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K128" t="s">
+      <c r="L128" t="s">
         <v>307</v>
       </c>
-      <c r="L128" t="s">
+      <c r="M128" t="s">
         <v>308</v>
       </c>
-      <c r="M128" s="1"/>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
@@ -7783,8 +7833,9 @@
       <c r="AG128" s="1"/>
       <c r="AH128" s="1"/>
       <c r="AI128" s="1"/>
-    </row>
-    <row r="129" spans="1:35" ht="34" x14ac:dyDescent="0.2">
+      <c r="AJ128" s="1"/>
+    </row>
+    <row r="129" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>309</v>
       </c>
@@ -7795,28 +7846,27 @@
         <v>125</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>900</v>
+        <v>881</v>
       </c>
       <c r="E129" s="11"/>
       <c r="F129" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G129" s="3">
         <v>1</v>
       </c>
-      <c r="I129" s="3" t="s">
+      <c r="J129" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="J129" s="3" t="s">
+      <c r="K129" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K129" t="s">
+      <c r="L129" t="s">
         <v>311</v>
       </c>
-      <c r="L129" t="s">
+      <c r="M129" t="s">
         <v>312</v>
       </c>
-      <c r="M129" s="1"/>
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
@@ -7839,8 +7889,9 @@
       <c r="AG129" s="1"/>
       <c r="AH129" s="1"/>
       <c r="AI129" s="1"/>
-    </row>
-    <row r="130" spans="1:35" ht="17" x14ac:dyDescent="0.2">
+      <c r="AJ129" s="1"/>
+    </row>
+    <row r="130" spans="1:36" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>313</v>
       </c>
@@ -7851,28 +7902,27 @@
         <v>340</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>879</v>
+        <v>893</v>
       </c>
       <c r="E130" s="11"/>
       <c r="F130" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G130" s="3">
         <v>1</v>
       </c>
-      <c r="I130" s="3" t="s">
+      <c r="J130" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="J130" s="3" t="s">
+      <c r="K130" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K130" t="s">
+      <c r="L130" t="s">
         <v>315</v>
       </c>
-      <c r="L130" t="s">
+      <c r="M130" t="s">
         <v>316</v>
       </c>
-      <c r="M130" s="1"/>
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
@@ -7895,8 +7945,9 @@
       <c r="AG130" s="1"/>
       <c r="AH130" s="1"/>
       <c r="AI130" s="1"/>
-    </row>
-    <row r="131" spans="1:35" ht="17" x14ac:dyDescent="0.2">
+      <c r="AJ130" s="1"/>
+    </row>
+    <row r="131" spans="1:36" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>317</v>
       </c>
@@ -7907,28 +7958,27 @@
         <v>3675</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>898</v>
+        <v>879</v>
       </c>
       <c r="E131" s="16"/>
       <c r="F131" s="17" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G131" s="17">
         <v>1</v>
       </c>
-      <c r="I131" s="3" t="s">
+      <c r="J131" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="J131" s="3" t="s">
+      <c r="K131" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K131" t="s">
+      <c r="L131" t="s">
         <v>319</v>
       </c>
-      <c r="L131" t="s">
+      <c r="M131" t="s">
         <v>320</v>
       </c>
-      <c r="M131" s="1"/>
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
@@ -7951,8 +8001,9 @@
       <c r="AG131" s="1"/>
       <c r="AH131" s="1"/>
       <c r="AI131" s="1"/>
-    </row>
-    <row r="132" spans="1:35" ht="17" x14ac:dyDescent="0.2">
+      <c r="AJ131" s="1"/>
+    </row>
+    <row r="132" spans="1:36" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>321</v>
       </c>
@@ -7963,28 +8014,27 @@
         <v>1830</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>897</v>
+        <v>878</v>
       </c>
       <c r="E132" s="11"/>
       <c r="F132" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G132" s="3">
         <v>1</v>
       </c>
-      <c r="I132" s="3" t="s">
+      <c r="J132" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="J132" s="3" t="s">
+      <c r="K132" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K132" t="s">
+      <c r="L132" t="s">
         <v>323</v>
       </c>
-      <c r="L132" t="s">
+      <c r="M132" t="s">
         <v>324</v>
       </c>
-      <c r="M132" s="1"/>
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
@@ -8007,8 +8057,9 @@
       <c r="AG132" s="1"/>
       <c r="AH132" s="1"/>
       <c r="AI132" s="1"/>
-    </row>
-    <row r="133" spans="1:35" ht="17" x14ac:dyDescent="0.2">
+      <c r="AJ132" s="1"/>
+    </row>
+    <row r="133" spans="1:36" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>325</v>
       </c>
@@ -8019,30 +8070,29 @@
         <v>18.25</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G133" s="3">
         <v>1</v>
       </c>
-      <c r="I133" s="3" t="s">
+      <c r="J133" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="J133" s="3" t="s">
+      <c r="K133" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K133" t="s">
+      <c r="L133" t="s">
         <v>327</v>
       </c>
-      <c r="L133" t="s">
+      <c r="M133" t="s">
         <v>328</v>
       </c>
-      <c r="M133" s="1"/>
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
@@ -8065,8 +8115,9 @@
       <c r="AG133" s="1"/>
       <c r="AH133" s="1"/>
       <c r="AI133" s="1"/>
-    </row>
-    <row r="134" spans="1:35" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AJ133" s="1"/>
+    </row>
+    <row r="134" spans="1:36" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>329</v>
       </c>
@@ -8077,29 +8128,29 @@
         <v>68</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>896</v>
+        <v>877</v>
       </c>
       <c r="E134" s="11"/>
       <c r="F134" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G134" s="3">
         <v>1</v>
       </c>
       <c r="H134" s="3"/>
-      <c r="I134" s="3" t="s">
+      <c r="I134" s="3"/>
+      <c r="J134" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="J134" s="3" t="s">
+      <c r="K134" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K134" t="s">
+      <c r="L134" t="s">
         <v>331</v>
       </c>
-      <c r="L134" t="s">
+      <c r="M134" t="s">
         <v>332</v>
       </c>
-      <c r="M134" s="5"/>
       <c r="N134" s="5"/>
       <c r="O134" s="5"/>
       <c r="P134" s="5"/>
@@ -8122,8 +8173,9 @@
       <c r="AG134" s="5"/>
       <c r="AH134" s="5"/>
       <c r="AI134" s="5"/>
-    </row>
-    <row r="135" spans="1:35" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AJ134" s="5"/>
+    </row>
+    <row r="135" spans="1:36" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>333</v>
       </c>
@@ -8134,31 +8186,31 @@
         <v>118</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G135" s="3">
         <v>1</v>
       </c>
       <c r="H135" s="3"/>
-      <c r="I135" s="3" t="s">
+      <c r="I135" s="3"/>
+      <c r="J135" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="J135" s="3" t="s">
+      <c r="K135" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K135" t="s">
+      <c r="L135" t="s">
         <v>335</v>
       </c>
-      <c r="L135" t="s">
+      <c r="M135" t="s">
         <v>336</v>
       </c>
-      <c r="M135" s="5"/>
       <c r="N135" s="5"/>
       <c r="O135" s="5"/>
       <c r="P135" s="5"/>
@@ -8181,8 +8233,9 @@
       <c r="AG135" s="5"/>
       <c r="AH135" s="5"/>
       <c r="AI135" s="5"/>
-    </row>
-    <row r="136" spans="1:35" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="AJ135" s="5"/>
+    </row>
+    <row r="136" spans="1:36" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>337</v>
       </c>
@@ -8193,31 +8246,31 @@
         <v>77</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G136" s="3">
         <v>1</v>
       </c>
       <c r="H136" s="3"/>
-      <c r="I136" s="3" t="s">
+      <c r="I136" s="3"/>
+      <c r="J136" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="J136" s="3" t="s">
+      <c r="K136" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K136" t="s">
+      <c r="L136" t="s">
         <v>339</v>
       </c>
-      <c r="L136" t="s">
+      <c r="M136" t="s">
         <v>340</v>
       </c>
-      <c r="M136" s="5"/>
       <c r="N136" s="5"/>
       <c r="O136" s="5"/>
       <c r="P136" s="5"/>
@@ -8240,8 +8293,9 @@
       <c r="AG136" s="5"/>
       <c r="AH136" s="5"/>
       <c r="AI136" s="5"/>
-    </row>
-    <row r="137" spans="1:35" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="AJ136" s="5"/>
+    </row>
+    <row r="137" spans="1:36" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>341</v>
       </c>
@@ -8252,29 +8306,29 @@
         <v>990</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>899</v>
+        <v>880</v>
       </c>
       <c r="E137" s="11"/>
       <c r="F137" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G137" s="3">
         <v>1</v>
       </c>
       <c r="H137" s="3"/>
-      <c r="I137" s="3" t="s">
+      <c r="I137" s="3"/>
+      <c r="J137" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="J137" s="3" t="s">
+      <c r="K137" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K137" t="s">
+      <c r="L137" t="s">
         <v>343</v>
       </c>
-      <c r="L137" t="s">
+      <c r="M137" t="s">
         <v>344</v>
       </c>
-      <c r="M137" s="5"/>
       <c r="N137" s="5"/>
       <c r="O137" s="5"/>
       <c r="P137" s="5"/>
@@ -8297,8 +8351,9 @@
       <c r="AG137" s="5"/>
       <c r="AH137" s="5"/>
       <c r="AI137" s="5"/>
-    </row>
-    <row r="138" spans="1:35" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="AJ137" s="5"/>
+    </row>
+    <row r="138" spans="1:36" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>345</v>
       </c>
@@ -8309,31 +8364,31 @@
         <v>40</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G138" s="3">
         <v>1</v>
       </c>
       <c r="H138" s="3"/>
-      <c r="I138" s="3" t="s">
+      <c r="I138" s="3"/>
+      <c r="J138" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="J138" s="3" t="s">
+      <c r="K138" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K138" t="s">
+      <c r="L138" t="s">
         <v>347</v>
       </c>
-      <c r="L138" t="s">
+      <c r="M138" t="s">
         <v>348</v>
       </c>
-      <c r="M138" s="5"/>
       <c r="N138" s="5"/>
       <c r="O138" s="5"/>
       <c r="P138" s="5"/>
@@ -8356,8 +8411,9 @@
       <c r="AG138" s="5"/>
       <c r="AH138" s="5"/>
       <c r="AI138" s="5"/>
-    </row>
-    <row r="139" spans="1:35" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="AJ138" s="5"/>
+    </row>
+    <row r="139" spans="1:36" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>349</v>
       </c>
@@ -8368,31 +8424,31 @@
         <v>62</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G139" s="3">
         <v>1</v>
       </c>
       <c r="H139" s="3"/>
-      <c r="I139" s="4" t="s">
+      <c r="I139" s="3"/>
+      <c r="J139" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="J139" s="3" t="s">
+      <c r="K139" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K139" s="1" t="s">
+      <c r="L139" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="L139" s="1" t="s">
+      <c r="M139" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="M139" s="5"/>
       <c r="N139" s="5"/>
       <c r="O139" s="5"/>
       <c r="P139" s="5"/>
@@ -8415,8 +8471,9 @@
       <c r="AG139" s="5"/>
       <c r="AH139" s="5"/>
       <c r="AI139" s="5"/>
-    </row>
-    <row r="140" spans="1:35" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="AJ139" s="5"/>
+    </row>
+    <row r="140" spans="1:36" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>353</v>
       </c>
@@ -8427,31 +8484,31 @@
         <v>30.5</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G140" s="3">
         <v>1</v>
       </c>
       <c r="H140" s="4"/>
-      <c r="I140" s="4" t="s">
+      <c r="I140" s="4"/>
+      <c r="J140" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="J140" s="3" t="s">
+      <c r="K140" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K140" s="1" t="s">
+      <c r="L140" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="L140" s="1" t="s">
+      <c r="M140" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="M140" s="5"/>
       <c r="N140" s="5"/>
       <c r="O140" s="5"/>
       <c r="P140" s="5"/>
@@ -8474,8 +8531,9 @@
       <c r="AG140" s="5"/>
       <c r="AH140" s="5"/>
       <c r="AI140" s="5"/>
-    </row>
-    <row r="141" spans="1:35" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="AJ140" s="5"/>
+    </row>
+    <row r="141" spans="1:36" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>357</v>
       </c>
@@ -8486,29 +8544,29 @@
         <v>300</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G141" s="3">
         <v>1</v>
       </c>
       <c r="H141" s="4"/>
-      <c r="I141" s="4" t="s">
+      <c r="I141" s="4"/>
+      <c r="J141" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="J141" s="4" t="s">
+      <c r="K141" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="K141" s="1" t="s">
+      <c r="L141" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="L141" s="1" t="s">
+      <c r="M141" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="M141" s="5"/>
       <c r="N141" s="5"/>
       <c r="O141" s="5"/>
       <c r="P141" s="5"/>
@@ -8531,8 +8589,9 @@
       <c r="AG141" s="5"/>
       <c r="AH141" s="5"/>
       <c r="AI141" s="5"/>
-    </row>
-    <row r="142" spans="1:35" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="AJ141" s="5"/>
+    </row>
+    <row r="142" spans="1:36" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>361</v>
       </c>
@@ -8543,31 +8602,31 @@
         <v>5.6</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G142" s="3">
         <v>1</v>
       </c>
       <c r="H142" s="4"/>
-      <c r="I142" s="4" t="s">
+      <c r="I142" s="4"/>
+      <c r="J142" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="J142" s="3" t="s">
+      <c r="K142" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K142" s="1" t="s">
+      <c r="L142" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="L142" s="1" t="s">
+      <c r="M142" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="M142" s="5"/>
       <c r="N142" s="5"/>
       <c r="O142" s="5"/>
       <c r="P142" s="5"/>
@@ -8590,8 +8649,9 @@
       <c r="AG142" s="5"/>
       <c r="AH142" s="5"/>
       <c r="AI142" s="5"/>
-    </row>
-    <row r="143" spans="1:35" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AJ142" s="5"/>
+    </row>
+    <row r="143" spans="1:36" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>636</v>
       </c>
@@ -8602,25 +8662,25 @@
         <v>1500</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="E143" s="11"/>
       <c r="F143" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G143" s="3">
         <v>1</v>
       </c>
       <c r="H143" s="3"/>
-      <c r="I143" s="3" t="s">
+      <c r="I143" s="3"/>
+      <c r="J143" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="J143" s="3" t="s">
+      <c r="K143" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K143"/>
       <c r="L143"/>
-      <c r="M143" s="5"/>
+      <c r="M143"/>
       <c r="N143" s="5"/>
       <c r="O143" s="5"/>
       <c r="P143" s="5"/>
@@ -8643,8 +8703,9 @@
       <c r="AG143" s="5"/>
       <c r="AH143" s="5"/>
       <c r="AI143" s="5"/>
-    </row>
-    <row r="144" spans="1:35" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="AJ143" s="5"/>
+    </row>
+    <row r="144" spans="1:36" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>638</v>
       </c>
@@ -8655,25 +8716,25 @@
         <v>461.39</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="E144" s="11"/>
       <c r="F144" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G144" s="3">
         <v>1</v>
       </c>
       <c r="H144" s="3"/>
-      <c r="I144" s="3" t="s">
+      <c r="I144" s="3"/>
+      <c r="J144" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="J144" s="3" t="s">
+      <c r="K144" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K144"/>
       <c r="L144"/>
-      <c r="M144" s="5"/>
+      <c r="M144"/>
       <c r="N144" s="5"/>
       <c r="O144" s="5"/>
       <c r="P144" s="5"/>
@@ -8696,8 +8757,9 @@
       <c r="AG144" s="5"/>
       <c r="AH144" s="5"/>
       <c r="AI144" s="5"/>
-    </row>
-    <row r="145" spans="1:35" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="AJ144" s="5"/>
+    </row>
+    <row r="145" spans="1:36" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>633</v>
       </c>
@@ -8708,25 +8770,25 @@
         <v>764.42</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="E145" s="11"/>
       <c r="F145" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G145" s="3">
         <v>1</v>
       </c>
       <c r="H145" s="3"/>
-      <c r="I145" s="3" t="s">
+      <c r="I145" s="3"/>
+      <c r="J145" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="J145" s="3" t="s">
+      <c r="K145" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K145"/>
       <c r="L145"/>
-      <c r="M145" s="5"/>
+      <c r="M145"/>
       <c r="N145" s="5"/>
       <c r="O145" s="5"/>
       <c r="P145" s="5"/>
@@ -8749,8 +8811,9 @@
       <c r="AG145" s="5"/>
       <c r="AH145" s="5"/>
       <c r="AI145" s="5"/>
-    </row>
-    <row r="146" spans="1:35" ht="17" x14ac:dyDescent="0.2">
+      <c r="AJ145" s="5"/>
+    </row>
+    <row r="146" spans="1:36" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>365</v>
       </c>
@@ -8761,31 +8824,31 @@
         <v>33</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G146" s="3">
         <v>1</v>
       </c>
-      <c r="I146" s="3" t="s">
+      <c r="J146" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="J146" s="3" t="s">
+      <c r="K146" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K146" t="s">
+      <c r="L146" t="s">
         <v>367</v>
       </c>
-      <c r="L146" t="s">
+      <c r="M146" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="147" spans="1:35" ht="34" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>369</v>
       </c>
@@ -8796,29 +8859,29 @@
         <v>245</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="E147" s="11"/>
       <c r="F147" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G147" s="3">
         <v>1</v>
       </c>
-      <c r="I147" s="3" t="s">
+      <c r="J147" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="J147" s="3" t="s">
+      <c r="K147" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K147" t="s">
+      <c r="L147" t="s">
         <v>371</v>
       </c>
-      <c r="L147" t="s">
+      <c r="M147" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="148" spans="1:35" ht="17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:36" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>373</v>
       </c>
@@ -8829,29 +8892,29 @@
         <v>340</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="E148" s="11"/>
       <c r="F148" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G148" s="3">
         <v>1</v>
       </c>
-      <c r="I148" s="3" t="s">
+      <c r="J148" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="J148" s="3" t="s">
+      <c r="K148" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K148" t="s">
+      <c r="L148" t="s">
         <v>375</v>
       </c>
-      <c r="L148" t="s">
+      <c r="M148" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="149" spans="1:35" ht="34" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>377</v>
       </c>
@@ -8862,31 +8925,31 @@
         <v>10</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G149" s="3">
         <v>1</v>
       </c>
-      <c r="I149" s="3" t="s">
+      <c r="J149" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="J149" s="3" t="s">
+      <c r="K149" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K149" t="s">
+      <c r="L149" t="s">
         <v>379</v>
       </c>
-      <c r="L149" t="s">
+      <c r="M149" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="150" spans="1:35" ht="34" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>755</v>
       </c>
@@ -8898,14 +8961,14 @@
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="11"/>
-      <c r="I150" s="3" t="s">
+      <c r="J150" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="J150" s="3" t="s">
+      <c r="K150" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="151" spans="1:35" ht="34" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>381</v>
       </c>
@@ -8916,32 +8979,32 @@
         <v>155</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>870</v>
+        <v>892</v>
       </c>
       <c r="E151" s="11"/>
       <c r="F151" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G151" s="3">
         <v>1</v>
       </c>
-      <c r="H151" s="3" t="s">
-        <v>892</v>
-      </c>
       <c r="I151" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="J151" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="J151" s="3" t="s">
+      <c r="K151" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K151" t="s">
+      <c r="L151" t="s">
         <v>383</v>
       </c>
-      <c r="L151" t="s">
+      <c r="M151" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="152" spans="1:35" ht="34" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>704</v>
       </c>
@@ -8953,14 +9016,14 @@
       </c>
       <c r="D152" s="15"/>
       <c r="E152" s="11"/>
-      <c r="I152" s="3" t="s">
+      <c r="J152" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="J152" s="3" t="s">
+      <c r="K152" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="153" spans="1:35" ht="17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:36" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>700</v>
       </c>
@@ -8972,14 +9035,14 @@
       </c>
       <c r="D153" s="15"/>
       <c r="E153" s="11"/>
-      <c r="I153" s="3" t="s">
+      <c r="J153" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="J153" s="3" t="s">
+      <c r="K153" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="154" spans="1:35" ht="34" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>697</v>
       </c>
@@ -8990,23 +9053,23 @@
         <v>144</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E154" s="11"/>
       <c r="F154" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G154" s="3">
         <v>1</v>
       </c>
-      <c r="I154" s="3" t="s">
+      <c r="J154" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="J154" s="3" t="s">
+      <c r="K154" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="155" spans="1:35" ht="34" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>753</v>
       </c>
@@ -9018,14 +9081,14 @@
       </c>
       <c r="D155" s="15"/>
       <c r="E155" s="11"/>
-      <c r="I155" s="3" t="s">
+      <c r="J155" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="J155" s="3" t="s">
+      <c r="K155" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="156" spans="1:35" ht="34" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>828</v>
       </c>
@@ -9036,25 +9099,25 @@
         <v>62</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E156" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G156" s="3">
         <v>1</v>
       </c>
-      <c r="I156" s="3" t="s">
+      <c r="J156" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="J156" s="3" t="s">
+      <c r="K156" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="157" spans="1:35" ht="17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:36" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>827</v>
       </c>
@@ -9065,25 +9128,25 @@
         <v>127</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G157" s="3">
         <v>1</v>
       </c>
-      <c r="I157" s="3" t="s">
+      <c r="J157" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="J157" s="3" t="s">
+      <c r="K157" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="158" spans="1:35" ht="34" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>826</v>
       </c>
@@ -9094,25 +9157,25 @@
         <v>153</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E158" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G158" s="3">
         <v>1</v>
       </c>
-      <c r="I158" s="3" t="s">
+      <c r="J158" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="J158" s="3" t="s">
+      <c r="K158" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="159" spans="1:35" ht="34" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>824</v>
       </c>
@@ -9123,25 +9186,25 @@
         <v>324</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E159" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G159" s="3">
         <v>1</v>
       </c>
-      <c r="I159" s="3" t="s">
+      <c r="J159" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="J159" s="3" t="s">
+      <c r="K159" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="160" spans="1:35" ht="34" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>808</v>
       </c>
@@ -9152,25 +9215,25 @@
         <v>7</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E160" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G160" s="3">
         <v>1</v>
       </c>
-      <c r="I160" s="3" t="s">
+      <c r="J160" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="J160" s="3" t="s">
+      <c r="K160" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>385</v>
       </c>
@@ -9181,31 +9244,31 @@
         <v>45</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G161" s="3">
         <v>1</v>
       </c>
-      <c r="I161" s="3" t="s">
+      <c r="J161" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="J161" s="3" t="s">
+      <c r="K161" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="K161" t="s">
+      <c r="L161" t="s">
         <v>387</v>
       </c>
-      <c r="L161" t="s">
+      <c r="M161" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>820</v>
       </c>
@@ -9216,25 +9279,25 @@
         <v>279</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G162" s="3">
         <v>1</v>
       </c>
-      <c r="I162" s="3" t="s">
+      <c r="J162" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="J162" s="3" t="s">
+      <c r="K162" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>818</v>
       </c>
@@ -9245,25 +9308,25 @@
         <v>94</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E163" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G163" s="3">
         <v>1</v>
       </c>
-      <c r="I163" s="3" t="s">
+      <c r="J163" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="J163" s="3" t="s">
+      <c r="K163" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>516</v>
       </c>
@@ -9274,31 +9337,31 @@
         <v>120</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E164" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G164" s="3">
         <v>1</v>
       </c>
-      <c r="I164" s="3" t="s">
+      <c r="J164" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="J164" s="3" t="s">
+      <c r="K164" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="K164" t="s">
+      <c r="L164" t="s">
         <v>566</v>
       </c>
-      <c r="L164" t="s">
+      <c r="M164" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>846</v>
       </c>
@@ -9309,25 +9372,25 @@
         <v>6</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E165" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G165" s="3">
         <v>1</v>
       </c>
-      <c r="I165" s="3" t="s">
+      <c r="J165" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="J165" s="3" t="s">
+      <c r="K165" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>389</v>
       </c>
@@ -9338,31 +9401,31 @@
         <v>353</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E166" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G166" s="3">
         <v>1</v>
       </c>
-      <c r="I166" s="3" t="s">
+      <c r="J166" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="J166" s="3" t="s">
+      <c r="K166" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K166" t="s">
+      <c r="L166" t="s">
         <v>391</v>
       </c>
-      <c r="L166" t="s">
+      <c r="M166" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>393</v>
       </c>
@@ -9373,31 +9436,31 @@
         <v>36</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E167" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G167" s="3">
         <v>1</v>
       </c>
-      <c r="I167" s="4" t="s">
+      <c r="J167" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="J167" s="3" t="s">
+      <c r="K167" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K167" s="1" t="s">
+      <c r="L167" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="L167" s="1" t="s">
+      <c r="M167" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>397</v>
       </c>
@@ -9408,31 +9471,31 @@
         <v>440</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E168" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G168" s="3">
         <v>1</v>
       </c>
-      <c r="I168" s="4" t="s">
+      <c r="J168" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="J168" s="3" t="s">
+      <c r="K168" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K168" s="1" t="s">
+      <c r="L168" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="L168" s="1" t="s">
+      <c r="M168" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>695</v>
       </c>
@@ -9443,25 +9506,25 @@
         <v>640</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E169" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G169" s="3">
         <v>1</v>
       </c>
-      <c r="I169" s="3" t="s">
+      <c r="J169" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="J169" s="3" t="s">
+      <c r="K169" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>789</v>
       </c>
@@ -9472,25 +9535,25 @@
         <v>251</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E170" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G170" s="3">
         <v>1</v>
       </c>
-      <c r="I170" s="3" t="s">
+      <c r="J170" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="J170" s="3" t="s">
+      <c r="K170" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>401</v>
       </c>
@@ -9501,31 +9564,31 @@
         <v>131</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E171" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G171" s="3">
         <v>1</v>
       </c>
-      <c r="I171" s="4" t="s">
+      <c r="J171" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="J171" s="4" t="s">
+      <c r="K171" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="K171" s="1" t="s">
+      <c r="L171" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="L171" s="1" t="s">
+      <c r="M171" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>655</v>
       </c>
@@ -9536,25 +9599,25 @@
         <v>488</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G172" s="3">
         <v>1</v>
       </c>
-      <c r="I172" s="3" t="s">
+      <c r="J172" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="J172" s="3" t="s">
+      <c r="K172" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>652</v>
       </c>
@@ -9565,25 +9628,25 @@
         <v>256</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G173" s="3">
         <v>1</v>
       </c>
-      <c r="I173" s="3" t="s">
+      <c r="J173" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="J173" s="3" t="s">
+      <c r="K173" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>405</v>
       </c>
@@ -9594,31 +9657,31 @@
         <v>170</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G174" s="3">
         <v>1</v>
       </c>
-      <c r="I174" s="4" t="s">
+      <c r="J174" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="J174" s="3" t="s">
+      <c r="K174" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K174" s="1" t="s">
+      <c r="L174" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="M174" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>409</v>
       </c>
@@ -9629,31 +9692,31 @@
         <v>557</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E175" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G175" s="3">
         <v>1</v>
       </c>
-      <c r="I175" s="4" t="s">
+      <c r="J175" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="J175" s="3" t="s">
+      <c r="K175" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K175" s="1" t="s">
+      <c r="L175" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="M175" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>413</v>
       </c>
@@ -9664,31 +9727,31 @@
         <v>512</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E176" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G176" s="3">
         <v>1</v>
       </c>
-      <c r="I176" s="4" t="s">
+      <c r="J176" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="J176" s="3" t="s">
+      <c r="K176" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K176" s="1" t="s">
+      <c r="L176" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="M176" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>417</v>
       </c>
@@ -9699,31 +9762,31 @@
         <v>133</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E177" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G177" s="3">
         <v>1</v>
       </c>
-      <c r="I177" s="4" t="s">
+      <c r="J177" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="J177" s="3" t="s">
+      <c r="K177" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K177" s="1" t="s">
+      <c r="L177" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="M177" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>421</v>
       </c>
@@ -9734,31 +9797,31 @@
         <v>114</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E178" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G178" s="3">
         <v>1</v>
       </c>
-      <c r="I178" s="4" t="s">
+      <c r="J178" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="J178" s="3" t="s">
+      <c r="K178" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K178" s="1" t="s">
+      <c r="L178" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="M178" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>425</v>
       </c>
@@ -9769,31 +9832,31 @@
         <v>311</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E179" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G179" s="3">
         <v>1</v>
       </c>
-      <c r="I179" s="4" t="s">
+      <c r="J179" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="J179" s="3" t="s">
+      <c r="K179" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K179" s="1" t="s">
+      <c r="L179" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="M179" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>429</v>
       </c>
@@ -9804,31 +9867,31 @@
         <v>202</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G180" s="3">
         <v>1</v>
       </c>
-      <c r="I180" s="4" t="s">
+      <c r="J180" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="J180" s="3" t="s">
+      <c r="K180" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K180" s="1" t="s">
+      <c r="L180" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="M180" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>433</v>
       </c>
@@ -9839,31 +9902,31 @@
         <v>88</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G181" s="3">
         <v>1</v>
       </c>
-      <c r="I181" s="4" t="s">
+      <c r="J181" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="J181" s="3" t="s">
+      <c r="K181" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K181" s="1" t="s">
+      <c r="L181" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="M181" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>437</v>
       </c>
@@ -9874,29 +9937,29 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>867</v>
+        <v>905</v>
       </c>
       <c r="E182" s="11"/>
       <c r="F182" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G182" s="3">
         <v>1</v>
       </c>
-      <c r="I182" s="3" t="s">
+      <c r="J182" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="J182" s="3" t="s">
+      <c r="K182" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K182" t="s">
+      <c r="L182" t="s">
         <v>439</v>
       </c>
-      <c r="L182" t="s">
+      <c r="M182" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>441</v>
       </c>
@@ -9907,29 +9970,29 @@
         <v>52</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>867</v>
+        <v>905</v>
       </c>
       <c r="E183" s="11"/>
       <c r="F183" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G183" s="3">
         <v>1</v>
       </c>
-      <c r="I183" s="3" t="s">
+      <c r="J183" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="J183" s="3" t="s">
+      <c r="K183" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K183" t="s">
+      <c r="L183" t="s">
         <v>443</v>
       </c>
-      <c r="L183" t="s">
+      <c r="M183" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>445</v>
       </c>
@@ -9940,29 +10003,29 @@
         <v>795</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>867</v>
+        <v>905</v>
       </c>
       <c r="E184" s="11"/>
       <c r="F184" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G184" s="3">
         <v>1</v>
       </c>
-      <c r="I184" s="3" t="s">
+      <c r="J184" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="J184" s="3" t="s">
+      <c r="K184" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K184" t="s">
+      <c r="L184" t="s">
         <v>447</v>
       </c>
-      <c r="L184" t="s">
+      <c r="M184" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>790</v>
       </c>
@@ -9973,23 +10036,23 @@
         <v>24</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>885</v>
+        <v>909</v>
       </c>
       <c r="E185" s="11"/>
       <c r="F185" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G185" s="3">
         <v>1</v>
       </c>
-      <c r="I185" s="3" t="s">
+      <c r="J185" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="J185" s="3" t="s">
+      <c r="K185" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>694</v>
       </c>
@@ -10000,23 +10063,23 @@
         <v>175</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>867</v>
+        <v>905</v>
       </c>
       <c r="E186" s="11"/>
       <c r="F186" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G186" s="3">
         <v>1</v>
       </c>
-      <c r="I186" s="3" t="s">
+      <c r="J186" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="J186" s="3" t="s">
+      <c r="K186" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>748</v>
       </c>
@@ -10027,23 +10090,23 @@
         <v>29</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="E187" s="11"/>
       <c r="F187" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G187" s="3">
         <v>1</v>
       </c>
-      <c r="I187" s="3" t="s">
+      <c r="J187" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="J187" s="3" t="s">
+      <c r="K187" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>449</v>
       </c>
@@ -10054,29 +10117,29 @@
         <v>22.5</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>867</v>
+        <v>905</v>
       </c>
       <c r="E188" s="11"/>
       <c r="F188" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G188" s="3">
         <v>1</v>
       </c>
-      <c r="I188" s="3" t="s">
+      <c r="J188" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="J188" s="3" t="s">
+      <c r="K188" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K188" t="s">
+      <c r="L188" t="s">
         <v>451</v>
       </c>
-      <c r="L188" t="s">
+      <c r="M188" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>551</v>
       </c>
@@ -10087,29 +10150,29 @@
         <v>1.28</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>867</v>
+        <v>905</v>
       </c>
       <c r="E189" s="13"/>
       <c r="F189" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G189" s="3">
         <v>1</v>
       </c>
-      <c r="I189" s="6" t="s">
+      <c r="J189" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="J189" s="6" t="s">
+      <c r="K189" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="K189" s="5" t="s">
+      <c r="L189" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="L189" s="5" t="s">
+      <c r="M189" s="5" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>551</v>
       </c>
@@ -10120,23 +10183,23 @@
         <v>1.28</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>867</v>
+        <v>905</v>
       </c>
       <c r="E190" s="11"/>
       <c r="F190" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G190" s="3">
         <v>1</v>
       </c>
-      <c r="I190" s="3" t="s">
+      <c r="J190" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="J190" s="3" t="s">
+      <c r="K190" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
         <v>555</v>
       </c>
@@ -10147,29 +10210,29 @@
         <v>1.6</v>
       </c>
       <c r="D191" s="13" t="s">
-        <v>870</v>
+        <v>892</v>
       </c>
       <c r="E191" s="13"/>
       <c r="F191" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G191" s="3">
         <v>1</v>
       </c>
-      <c r="I191" s="6" t="s">
+      <c r="J191" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="J191" s="6" t="s">
+      <c r="K191" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="K191" s="5" t="s">
+      <c r="L191" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="L191" s="5" t="s">
+      <c r="M191" s="5" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>555</v>
       </c>
@@ -10180,23 +10243,23 @@
         <v>1.6</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>886</v>
+        <v>871</v>
       </c>
       <c r="E192" s="11"/>
       <c r="F192" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G192" s="3">
         <v>1</v>
       </c>
-      <c r="I192" s="3" t="s">
+      <c r="J192" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="J192" s="3" t="s">
+      <c r="K192" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>529</v>
       </c>
@@ -10207,29 +10270,29 @@
         <v>4</v>
       </c>
       <c r="D193" s="13" t="s">
-        <v>887</v>
+        <v>910</v>
       </c>
       <c r="E193" s="13"/>
       <c r="F193" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G193" s="3">
         <v>1</v>
       </c>
-      <c r="I193" s="6" t="s">
+      <c r="J193" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="J193" s="6" t="s">
+      <c r="K193" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="K193" s="5" t="s">
+      <c r="L193" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="L193" s="5" t="s">
+      <c r="M193" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
         <v>533</v>
       </c>
@@ -10240,29 +10303,29 @@
         <v>59.5</v>
       </c>
       <c r="D194" s="13" t="s">
-        <v>887</v>
+        <v>910</v>
       </c>
       <c r="E194" s="13"/>
       <c r="F194" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G194" s="3">
         <v>1</v>
       </c>
-      <c r="I194" s="6" t="s">
+      <c r="J194" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="J194" s="6" t="s">
+      <c r="K194" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="K194" s="5" t="s">
+      <c r="L194" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="L194" s="5" t="s">
+      <c r="M194" s="5" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
         <v>536</v>
       </c>
@@ -10273,29 +10336,29 @@
         <v>84</v>
       </c>
       <c r="D195" s="13" t="s">
-        <v>887</v>
+        <v>910</v>
       </c>
       <c r="E195" s="13"/>
       <c r="F195" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G195" s="3">
         <v>1</v>
       </c>
-      <c r="I195" s="6" t="s">
+      <c r="J195" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="J195" s="6" t="s">
+      <c r="K195" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="K195" s="5" t="s">
+      <c r="L195" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="L195" s="5" t="s">
+      <c r="M195" s="5" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>750</v>
       </c>
@@ -10306,23 +10369,23 @@
         <v>170</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>867</v>
+        <v>905</v>
       </c>
       <c r="E196" s="11"/>
       <c r="F196" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G196" s="3">
         <v>1</v>
       </c>
-      <c r="I196" s="3" t="s">
+      <c r="J196" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="J196" s="3" t="s">
+      <c r="K196" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>453</v>
       </c>
@@ -10333,31 +10396,31 @@
         <v>39</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E197" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G197" s="3">
         <v>1</v>
       </c>
-      <c r="I197" s="3" t="s">
+      <c r="J197" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="J197" s="3" t="s">
+      <c r="K197" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K197" t="s">
+      <c r="L197" t="s">
         <v>455</v>
       </c>
-      <c r="L197" t="s">
+      <c r="M197" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>457</v>
       </c>
@@ -10368,31 +10431,31 @@
         <v>88</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E198" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G198" s="3">
         <v>1</v>
       </c>
-      <c r="I198" s="3" t="s">
+      <c r="J198" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="J198" s="3" t="s">
+      <c r="K198" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K198" t="s">
+      <c r="L198" t="s">
         <v>459</v>
       </c>
-      <c r="L198" t="s">
+      <c r="M198" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>649</v>
       </c>
@@ -10403,25 +10466,25 @@
         <v>43</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E199" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G199" s="3">
         <v>1</v>
       </c>
-      <c r="I199" s="3" t="s">
+      <c r="J199" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="J199" s="3" t="s">
+      <c r="K199" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>816</v>
       </c>
@@ -10432,25 +10495,25 @@
         <v>10</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E200" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G200" s="3">
         <v>1</v>
       </c>
-      <c r="I200" s="3" t="s">
+      <c r="J200" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="J200" s="3" t="s">
+      <c r="K200" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>810</v>
       </c>
@@ -10461,25 +10524,25 @@
         <v>18</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E201" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G201" s="3">
         <v>1</v>
       </c>
-      <c r="I201" s="3" t="s">
+      <c r="J201" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="J201" s="3" t="s">
+      <c r="K201" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>814</v>
       </c>
@@ -10490,25 +10553,25 @@
         <v>16</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E202" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G202" s="3">
         <v>1</v>
       </c>
-      <c r="I202" s="3" t="s">
+      <c r="J202" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="J202" s="3" t="s">
+      <c r="K202" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
         <v>539</v>
       </c>
@@ -10519,29 +10582,29 @@
         <v>28.5</v>
       </c>
       <c r="D203" s="13" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="E203" s="13"/>
       <c r="F203" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G203" s="3">
         <v>1</v>
       </c>
-      <c r="I203" s="6" t="s">
+      <c r="J203" s="6" t="s">
         <v>799</v>
       </c>
-      <c r="J203" s="6" t="s">
+      <c r="K203" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="K203" s="5" t="s">
+      <c r="L203" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="L203" s="5" t="s">
+      <c r="M203" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
         <v>543</v>
       </c>
@@ -10552,29 +10615,29 @@
         <v>39</v>
       </c>
       <c r="D204" s="13" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="E204" s="13"/>
       <c r="F204" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G204" s="3">
         <v>1</v>
       </c>
-      <c r="I204" s="6" t="s">
+      <c r="J204" s="6" t="s">
         <v>799</v>
       </c>
-      <c r="J204" s="6" t="s">
+      <c r="K204" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="K204" s="5" t="s">
+      <c r="L204" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="L204" s="5" t="s">
+      <c r="M204" s="5" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
         <v>547</v>
       </c>
@@ -10585,29 +10648,29 @@
         <v>100</v>
       </c>
       <c r="D205" s="13" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="E205" s="13"/>
       <c r="F205" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G205" s="3">
         <v>1</v>
       </c>
-      <c r="I205" s="6" t="s">
+      <c r="J205" s="6" t="s">
         <v>799</v>
       </c>
-      <c r="J205" s="6" t="s">
+      <c r="K205" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="K205" s="5" t="s">
+      <c r="L205" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="L205" s="5" t="s">
+      <c r="M205" s="5" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>728</v>
       </c>
@@ -10618,25 +10681,25 @@
         <v>200</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E206" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G206" s="3">
         <v>1</v>
       </c>
-      <c r="I206" s="3" t="s">
+      <c r="J206" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="J206" s="3" t="s">
+      <c r="K206" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>647</v>
       </c>
@@ -10647,25 +10710,25 @@
         <v>100</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E207" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G207" s="3">
         <v>1</v>
       </c>
-      <c r="I207" s="3" t="s">
+      <c r="J207" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="J207" s="3" t="s">
+      <c r="K207" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>461</v>
       </c>
@@ -10676,31 +10739,31 @@
         <v>323</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E208" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G208" s="3">
         <v>1</v>
       </c>
-      <c r="I208" s="3" t="s">
+      <c r="J208" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="J208" s="3" t="s">
+      <c r="K208" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K208" t="s">
+      <c r="L208" t="s">
         <v>463</v>
       </c>
-      <c r="L208" t="s">
+      <c r="M208" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>508</v>
       </c>
@@ -10711,31 +10774,31 @@
         <v>46</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E209" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G209" s="3">
         <v>1</v>
       </c>
-      <c r="I209" s="3" t="s">
+      <c r="J209" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="J209" s="3" t="s">
+      <c r="K209" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K209" t="s">
+      <c r="L209" t="s">
         <v>510</v>
       </c>
-      <c r="L209" t="s">
+      <c r="M209" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>690</v>
       </c>
@@ -10746,25 +10809,25 @@
         <v>244</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E210" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G210" s="3">
         <v>1</v>
       </c>
-      <c r="I210" s="3" t="s">
+      <c r="J210" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="J210" s="3" t="s">
+      <c r="K210" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>687</v>
       </c>
@@ -10775,25 +10838,25 @@
         <v>409</v>
       </c>
       <c r="D211" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E211" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G211" s="3">
         <v>1</v>
       </c>
-      <c r="I211" s="3" t="s">
+      <c r="J211" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="J211" s="3" t="s">
+      <c r="K211" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>465</v>
       </c>
@@ -10804,31 +10867,31 @@
         <v>74</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E212" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G212" s="3">
         <v>1</v>
       </c>
-      <c r="I212" s="3" t="s">
+      <c r="J212" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="J212" s="3" t="s">
+      <c r="K212" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K212" t="s">
+      <c r="L212" t="s">
         <v>467</v>
       </c>
-      <c r="L212" t="s">
+      <c r="M212" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>465</v>
       </c>
@@ -10839,25 +10902,25 @@
         <v>74</v>
       </c>
       <c r="D213" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E213" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G213" s="3">
         <v>1</v>
       </c>
-      <c r="I213" s="3" t="s">
+      <c r="J213" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="J213" s="3" t="s">
+      <c r="K213" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>684</v>
       </c>
@@ -10868,25 +10931,25 @@
         <v>87</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E214" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G214" s="3">
         <v>1</v>
       </c>
-      <c r="I214" s="3" t="s">
+      <c r="J214" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="J214" s="3" t="s">
+      <c r="K214" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>469</v>
       </c>
@@ -10897,31 +10960,31 @@
         <v>121</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E215" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G215" s="3">
         <v>1</v>
       </c>
-      <c r="I215" s="3" t="s">
+      <c r="J215" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="J215" s="3" t="s">
+      <c r="K215" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="K215" t="s">
+      <c r="L215" t="s">
         <v>471</v>
       </c>
-      <c r="L215" t="s">
+      <c r="M215" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>745</v>
       </c>
@@ -10932,23 +10995,23 @@
         <v>14.8</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>893</v>
+        <v>907</v>
       </c>
       <c r="E216" s="11"/>
       <c r="F216" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G216" s="3">
         <v>1</v>
       </c>
-      <c r="I216" s="3" t="s">
+      <c r="J216" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="J216" s="3" t="s">
+      <c r="K216" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>681</v>
       </c>
@@ -10959,23 +11022,23 @@
         <v>683</v>
       </c>
       <c r="D217" s="11" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="E217" s="11"/>
       <c r="F217" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G217" s="3">
         <v>1</v>
       </c>
-      <c r="I217" s="3" t="s">
+      <c r="J217" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="J217" s="3" t="s">
+      <c r="K217" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>743</v>
       </c>
@@ -10986,25 +11049,25 @@
         <v>2.8</v>
       </c>
       <c r="D218" s="11" t="s">
-        <v>890</v>
+        <v>872</v>
       </c>
       <c r="E218" s="11" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G218" s="3">
         <v>1</v>
       </c>
-      <c r="I218" s="3" t="s">
+      <c r="J218" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="J218" s="3" t="s">
+      <c r="K218" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>725</v>
       </c>
@@ -11015,25 +11078,25 @@
         <v>7.3</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E219" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G219" s="3">
         <v>1</v>
       </c>
-      <c r="I219" s="3" t="s">
+      <c r="J219" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="J219" s="3" t="s">
+      <c r="K219" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>741</v>
       </c>
@@ -11044,25 +11107,25 @@
         <v>8.4</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E220" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G220" s="3">
         <v>1</v>
       </c>
-      <c r="I220" s="3" t="s">
+      <c r="J220" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="J220" s="3" t="s">
+      <c r="K220" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>473</v>
       </c>
@@ -11073,29 +11136,29 @@
         <v>270</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>889</v>
+        <v>906</v>
       </c>
       <c r="E221" s="11"/>
       <c r="F221" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G221" s="3">
         <v>1</v>
       </c>
-      <c r="I221" s="3" t="s">
+      <c r="J221" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="J221" s="3" t="s">
+      <c r="K221" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K221" t="s">
+      <c r="L221" t="s">
         <v>475</v>
       </c>
-      <c r="L221" t="s">
+      <c r="M221" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>477</v>
       </c>
@@ -11106,31 +11169,31 @@
         <v>170</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>890</v>
+        <v>872</v>
       </c>
       <c r="E222" s="11" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G222" s="3">
         <v>0.01</v>
       </c>
-      <c r="I222" s="3" t="s">
+      <c r="J222" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="J222" s="3" t="s">
+      <c r="K222" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="K222" t="s">
+      <c r="L222" t="s">
         <v>475</v>
       </c>
-      <c r="L222" t="s">
+      <c r="M222" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>739</v>
       </c>
@@ -11140,24 +11203,24 @@
       <c r="C223" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="D223" s="11" t="s">
-        <v>894</v>
+      <c r="D223" s="15" t="s">
+        <v>875</v>
       </c>
       <c r="E223" s="11"/>
       <c r="F223" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G223" s="3">
         <v>1</v>
       </c>
-      <c r="I223" s="3" t="s">
+      <c r="J223" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="J223" s="3" t="s">
+      <c r="K223" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>737</v>
       </c>
@@ -11168,23 +11231,23 @@
         <v>315</v>
       </c>
       <c r="D224" s="11" t="s">
-        <v>895</v>
+        <v>876</v>
       </c>
       <c r="E224" s="11"/>
       <c r="F224" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G224" s="3">
         <v>1</v>
       </c>
-      <c r="I224" s="3" t="s">
+      <c r="J224" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="J224" s="3" t="s">
+      <c r="K224" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>736</v>
       </c>
@@ -11195,23 +11258,23 @@
         <v>2480</v>
       </c>
       <c r="D225" s="11" t="s">
-        <v>895</v>
+        <v>876</v>
       </c>
       <c r="E225" s="11"/>
       <c r="F225" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G225" s="3">
         <v>1</v>
       </c>
-      <c r="I225" s="3" t="s">
+      <c r="J225" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="J225" s="3" t="s">
+      <c r="K225" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>480</v>
       </c>
@@ -11222,31 +11285,31 @@
         <v>201</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E226" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G226" s="3">
         <v>1</v>
       </c>
-      <c r="I226" s="3" t="s">
+      <c r="J226" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="J226" s="3" t="s">
+      <c r="K226" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K226" t="s">
+      <c r="L226" t="s">
         <v>482</v>
       </c>
-      <c r="L226" t="s">
+      <c r="M226" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>783</v>
       </c>
@@ -11257,25 +11320,25 @@
         <v>164</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E227" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G227" s="3">
         <v>1</v>
       </c>
-      <c r="I227" s="3" t="s">
+      <c r="J227" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="J227" s="3" t="s">
+      <c r="K227" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>812</v>
       </c>
@@ -11286,25 +11349,25 @@
         <v>440</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E228" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G228" s="3">
         <v>1</v>
       </c>
-      <c r="I228" s="3" t="s">
+      <c r="J228" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="J228" s="3" t="s">
+      <c r="K228" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>830</v>
       </c>
@@ -11315,25 +11378,25 @@
         <v>304</v>
       </c>
       <c r="D229" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E229" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G229" s="3">
         <v>1</v>
       </c>
-      <c r="I229" s="3" t="s">
+      <c r="J229" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="J229" s="3" t="s">
+      <c r="K229" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="230" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>484</v>
       </c>
@@ -11344,31 +11407,31 @@
         <v>501</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E230" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G230" s="3">
         <v>1</v>
       </c>
-      <c r="I230" s="3" t="s">
+      <c r="J230" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="J230" s="3" t="s">
+      <c r="K230" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K230" t="s">
+      <c r="L230" t="s">
         <v>486</v>
       </c>
-      <c r="L230" t="s">
+      <c r="M230" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>512</v>
       </c>
@@ -11379,31 +11442,31 @@
         <v>37</v>
       </c>
       <c r="D231" s="11" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="E231" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G231" s="3">
         <v>0.01</v>
       </c>
-      <c r="I231" s="3" t="s">
+      <c r="J231" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="J231" s="3" t="s">
+      <c r="K231" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K231" t="s">
+      <c r="L231" t="s">
         <v>514</v>
       </c>
-      <c r="L231" t="s">
+      <c r="M231" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="232" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>680</v>
       </c>
@@ -11414,23 +11477,23 @@
         <v>103</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>889</v>
+        <v>906</v>
       </c>
       <c r="E232" s="11"/>
       <c r="F232" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G232" s="3">
         <v>1</v>
       </c>
-      <c r="I232" s="3" t="s">
+      <c r="J232" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="J232" s="3" t="s">
+      <c r="K232" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>677</v>
       </c>
@@ -11441,23 +11504,23 @@
         <v>183</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>889</v>
+        <v>906</v>
       </c>
       <c r="E233" s="11"/>
       <c r="F233" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G233" s="3">
         <v>1</v>
       </c>
-      <c r="I233" s="3" t="s">
+      <c r="J233" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="J233" s="3" t="s">
+      <c r="K233" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>786</v>
       </c>
@@ -11468,25 +11531,25 @@
         <v>78</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E234" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G234" s="3">
         <v>1</v>
       </c>
-      <c r="I234" s="3" t="s">
+      <c r="J234" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="J234" s="3" t="s">
+      <c r="K234" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>672</v>
       </c>
@@ -11497,25 +11560,25 @@
         <v>323</v>
       </c>
       <c r="D235" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E235" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G235" s="3">
         <v>1</v>
       </c>
-      <c r="I235" s="3" t="s">
+      <c r="J235" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="J235" s="3" t="s">
+      <c r="K235" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>784</v>
       </c>
@@ -11526,25 +11589,25 @@
         <v>39</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E236" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G236" s="3">
         <v>1</v>
       </c>
-      <c r="I236" s="3" t="s">
+      <c r="J236" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="J236" s="3" t="s">
+      <c r="K236" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>675</v>
       </c>
@@ -11555,25 +11618,25 @@
         <v>446</v>
       </c>
       <c r="D237" s="11" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="E237" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G237" s="3">
         <v>1</v>
       </c>
-      <c r="I237" s="3" t="s">
+      <c r="J237" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="J237" s="3" t="s">
+      <c r="K237" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" s="10" t="s">
         <v>844</v>
       </c>
@@ -11583,8 +11646,9 @@
       <c r="F242" s="10"/>
       <c r="G242" s="9"/>
       <c r="H242" s="9"/>
-    </row>
-    <row r="243" spans="2:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I242" s="9"/>
+    </row>
+    <row r="243" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B243" s="8" t="s">
         <v>841</v>
       </c>
@@ -11599,8 +11663,9 @@
       <c r="G243" s="8"/>
       <c r="H243" s="8"/>
       <c r="I243" s="8"/>
-    </row>
-    <row r="244" spans="2:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J243" s="8"/>
+    </row>
+    <row r="244" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B244" s="3" t="s">
         <v>836</v>
       </c>
@@ -11610,11 +11675,11 @@
       <c r="F244" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="I244" s="3" t="s">
+      <c r="J244" s="3" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="245" spans="2:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B245" s="3" t="s">
         <v>837</v>
       </c>
@@ -11624,11 +11689,11 @@
       <c r="F245" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="I245" s="3" t="s">
+      <c r="J245" s="3" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="246" spans="2:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B246" s="3" t="s">
         <v>838</v>
       </c>
@@ -11640,11 +11705,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L237" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L237">
-      <sortCondition ref="A1:A237"/>
-    </sortState>
-  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B242:F242"/>
   </mergeCells>

--- a/app/data/Reference Data for CS Mid Tier and Higher Tier Options and Capital Items.xlsx
+++ b/app/data/Reference Data for CS Mid Tier and Higher Tier Options and Capital Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattfielding/projects/defra/local-nature-recovery-prototype/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DC8065-8D4D-6642-8D87-BE339F306844}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D971C7C7-C31E-AE42-9ED0-A9F53F57CEAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="760" windowWidth="42860" windowHeight="25100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2740" yWindow="1680" windowWidth="42860" windowHeight="25100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grants" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="910">
   <si>
     <t>Option</t>
   </si>
@@ -2627,30 +2627,15 @@
     <t>multiplier</t>
   </si>
   <si>
-    <t>trees</t>
-  </si>
-  <si>
     <t>veteran trees</t>
   </si>
   <si>
     <t>m2</t>
   </si>
   <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>units (dam / barrier)</t>
-  </si>
-  <si>
     <t>m3</t>
   </si>
   <si>
-    <t>varieties</t>
-  </si>
-  <si>
-    <t>unit (tree shelter)</t>
-  </si>
-  <si>
     <t>squared meters</t>
   </si>
   <si>
@@ -2663,27 +2648,6 @@
     <t>cost</t>
   </si>
   <si>
-    <t>sluices</t>
-  </si>
-  <si>
-    <t>units (trough)</t>
-  </si>
-  <si>
-    <t>units (pen)</t>
-  </si>
-  <si>
-    <t>units (dip/pen)</t>
-  </si>
-  <si>
-    <t>units (biofolter)</t>
-  </si>
-  <si>
-    <t>units (diverter/filter)</t>
-  </si>
-  <si>
-    <t>units (pit)</t>
-  </si>
-  <si>
     <t>hectare,hectares</t>
   </si>
   <si>
@@ -2769,6 +2733,36 @@
   </si>
   <si>
     <t>What's the size of your land in hectares (ha)</t>
+  </si>
+  <si>
+    <t>sluice, sluices</t>
+  </si>
+  <si>
+    <t>unit (tree shelter), units</t>
+  </si>
+  <si>
+    <t>unit (trough), units</t>
+  </si>
+  <si>
+    <t>unit (pen), units</t>
+  </si>
+  <si>
+    <t>unit (dip/pen), units</t>
+  </si>
+  <si>
+    <t>unit (diverter/filter), units</t>
+  </si>
+  <si>
+    <t>unit (pit), units</t>
+  </si>
+  <si>
+    <t>variety, varieties</t>
+  </si>
+  <si>
+    <t>unit (dam / barrier), units</t>
+  </si>
+  <si>
+    <t>unit (biofolter), units</t>
   </si>
 </sst>
 </file>
@@ -3608,8 +3602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ246"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3646,10 +3640,10 @@
         <v>863</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>852</v>
@@ -3675,7 +3669,7 @@
         <v>511</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>861</v>
@@ -3687,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>567</v>
@@ -3713,7 +3707,7 @@
         <v>640</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>861</v>
@@ -3748,7 +3742,7 @@
         <v>532</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>861</v>
@@ -3783,10 +3777,10 @@
         <v>632</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>859</v>
@@ -3818,7 +3812,7 @@
         <v>100</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>861</v>
@@ -3853,7 +3847,7 @@
         <v>266</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>861</v>
@@ -3888,7 +3882,7 @@
         <v>522</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>861</v>
@@ -3923,7 +3917,7 @@
         <v>550</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>861</v>
@@ -3958,7 +3952,7 @@
         <v>84</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>861</v>
@@ -3995,7 +3989,7 @@
         <v>573</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>861</v>
@@ -4065,7 +4059,7 @@
         <v>524</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>861</v>
@@ -4102,7 +4096,7 @@
         <v>436</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>861</v>
@@ -4139,7 +4133,7 @@
         <v>495</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>861</v>
@@ -4176,7 +4170,7 @@
         <v>539</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>861</v>
@@ -4211,7 +4205,7 @@
         <v>640</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>861</v>
@@ -4287,7 +4281,7 @@
         <v>420</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>861</v>
@@ -4322,7 +4316,7 @@
         <v>190</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>861</v>
@@ -4357,7 +4351,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>862</v>
@@ -4395,7 +4389,7 @@
         <v>212</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>861</v>
@@ -4430,7 +4424,7 @@
         <v>281</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>861</v>
@@ -4459,7 +4453,7 @@
         <v>221</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="3" t="s">
@@ -4489,7 +4483,7 @@
         <v>62</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>864</v>
+        <v>893</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="3" t="s">
@@ -4522,7 +4516,7 @@
         <v>31</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>862</v>
@@ -4557,7 +4551,7 @@
         <v>3.4</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>862</v>
@@ -4592,7 +4586,7 @@
         <v>11.6</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>862</v>
@@ -4627,7 +4621,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>862</v>
@@ -4662,7 +4656,7 @@
         <v>3.6</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>862</v>
@@ -4697,7 +4691,7 @@
         <v>44</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>862</v>
@@ -4732,7 +4726,7 @@
         <v>86</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>862</v>
@@ -4767,7 +4761,7 @@
         <v>13.5</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>862</v>
@@ -4802,7 +4796,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>862</v>
@@ -4837,7 +4831,7 @@
         <v>9.4</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>862</v>
@@ -4872,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>862</v>
@@ -4907,7 +4901,7 @@
         <v>9.5</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>862</v>
@@ -4942,7 +4936,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>862</v>
@@ -4977,7 +4971,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>862</v>
@@ -5006,7 +5000,7 @@
         <v>217</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>861</v>
@@ -5039,7 +5033,7 @@
         <v>314</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>861</v>
@@ -5072,7 +5066,7 @@
         <v>77</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>861</v>
@@ -5105,7 +5099,7 @@
         <v>442</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>861</v>
@@ -5138,7 +5132,7 @@
         <v>271</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>861</v>
@@ -5167,7 +5161,7 @@
         <v>117</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>861</v>
@@ -5196,7 +5190,7 @@
         <v>276</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>861</v>
@@ -5225,7 +5219,7 @@
         <v>290</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="3" t="s">
@@ -5256,7 +5250,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>862</v>
@@ -5291,7 +5285,7 @@
         <v>5.2</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>862</v>
@@ -5320,7 +5314,7 @@
         <v>136</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="3" t="s">
@@ -5347,7 +5341,7 @@
         <v>390</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="E52" s="13"/>
       <c r="F52" s="3" t="s">
@@ -5380,7 +5374,7 @@
         <v>135</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="3" t="s">
@@ -5413,7 +5407,7 @@
         <v>240</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="3" t="s">
@@ -5446,7 +5440,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>862</v>
@@ -5481,7 +5475,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>862</v>
@@ -5516,7 +5510,7 @@
         <v>2.5</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>862</v>
@@ -5551,7 +5545,7 @@
         <v>1.24</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>862</v>
@@ -5580,7 +5574,7 @@
         <v>11.1</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>862</v>
@@ -5609,7 +5603,7 @@
         <v>2.85</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>862</v>
@@ -5638,7 +5632,7 @@
         <v>7.2</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>862</v>
@@ -5705,7 +5699,7 @@
         <v>300</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="3" t="s">
@@ -5731,7 +5725,7 @@
       <c r="C65" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="D65" s="11"/>
+      <c r="D65" s="15"/>
       <c r="E65" s="11"/>
       <c r="J65" s="3" t="s">
         <v>629</v>
@@ -5751,7 +5745,7 @@
         <v>365</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>861</v>
@@ -5786,7 +5780,7 @@
         <v>157</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>861</v>
@@ -5821,7 +5815,7 @@
         <v>406</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>861</v>
@@ -5850,7 +5844,7 @@
         <v>310</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>861</v>
@@ -5879,7 +5873,7 @@
         <v>90</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>861</v>
@@ -5908,7 +5902,7 @@
         <v>253</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>861</v>
@@ -5937,7 +5931,7 @@
         <v>85</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>861</v>
@@ -5972,7 +5966,7 @@
         <v>73</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>861</v>
@@ -6007,7 +6001,7 @@
         <v>44</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>861</v>
@@ -6042,7 +6036,7 @@
         <v>95</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>861</v>
@@ -6077,7 +6071,7 @@
         <v>331</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>861</v>
@@ -6112,7 +6106,7 @@
         <v>309</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>861</v>
@@ -6149,7 +6143,7 @@
         <v>16</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>861</v>
@@ -6184,7 +6178,7 @@
         <v>182</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>861</v>
@@ -6219,7 +6213,7 @@
         <v>145</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>861</v>
@@ -6248,7 +6242,7 @@
         <v>267</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>861</v>
@@ -6277,7 +6271,7 @@
         <v>264</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>861</v>
@@ -6331,7 +6325,7 @@
         <v>290</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="E84" s="11"/>
       <c r="F84" s="3" t="s">
@@ -6358,10 +6352,10 @@
         <v>3.25</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>859</v>
@@ -6393,7 +6387,7 @@
         <v>425</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>861</v>
@@ -6428,7 +6422,7 @@
         <v>79</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>861</v>
@@ -6463,7 +6457,7 @@
         <v>137</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>861</v>
@@ -6498,7 +6492,7 @@
         <v>30</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>861</v>
@@ -6533,7 +6527,7 @@
         <v>440</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>861</v>
@@ -6568,7 +6562,7 @@
         <v>440</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E91" s="11" t="s">
         <v>861</v>
@@ -6601,7 +6595,7 @@
         <v>6.73</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>861</v>
@@ -6638,7 +6632,7 @@
         <v>174</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E93" s="11" t="s">
         <v>861</v>
@@ -6675,7 +6669,7 @@
         <v>274</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E94" s="11" t="s">
         <v>861</v>
@@ -6708,7 +6702,7 @@
         <v>184</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>861</v>
@@ -6737,7 +6731,7 @@
         <v>517</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>861</v>
@@ -6766,7 +6760,7 @@
         <v>835</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>867</v>
+        <v>888</v>
       </c>
       <c r="E97" s="11"/>
       <c r="F97" s="3" t="s">
@@ -6812,7 +6806,7 @@
         <v>110</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="E99" s="11"/>
       <c r="F99" s="3" t="s">
@@ -6845,7 +6839,7 @@
         <v>170</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="3" t="s">
@@ -6878,7 +6872,7 @@
         <v>220</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="E101" s="11"/>
       <c r="F101" s="3" t="s">
@@ -6911,7 +6905,7 @@
         <v>1480</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="E102" s="11"/>
       <c r="F102" s="3" t="s">
@@ -6946,7 +6940,7 @@
         <v>110</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
       <c r="E103" s="11"/>
       <c r="F103" s="3" t="s">
@@ -6981,7 +6975,7 @@
         <v>2.65</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E104" s="11" t="s">
         <v>862</v>
@@ -7018,7 +7012,7 @@
         <v>116</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E105" s="11" t="s">
         <v>862</v>
@@ -7055,7 +7049,7 @@
         <v>640</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>862</v>
@@ -7123,7 +7117,7 @@
         <v>115</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>861</v>
@@ -7160,7 +7154,7 @@
         <v>86</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>861</v>
@@ -7197,7 +7191,7 @@
         <v>40</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E110" s="11" t="s">
         <v>861</v>
@@ -7234,7 +7228,7 @@
         <v>20</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E111" s="11" t="s">
         <v>861</v>
@@ -7271,7 +7265,7 @@
         <v>65</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>861</v>
@@ -7308,7 +7302,7 @@
         <v>200</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E113" s="11" t="s">
         <v>861</v>
@@ -7343,7 +7337,7 @@
         <v>300</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>861</v>
@@ -7378,7 +7372,7 @@
         <v>8</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E115" s="11" t="s">
         <v>861</v>
@@ -7413,7 +7407,7 @@
         <v>1100</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="E116" s="11"/>
       <c r="F116" s="3" t="s">
@@ -7481,7 +7475,7 @@
         <v>92</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="E119" s="11"/>
       <c r="F119" s="3" t="s">
@@ -7514,7 +7508,7 @@
         <v>75</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>868</v>
+        <v>908</v>
       </c>
       <c r="E120" s="11"/>
       <c r="F120" s="3" t="s">
@@ -7547,10 +7541,10 @@
         <v>5.95</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>859</v>
@@ -7582,7 +7576,7 @@
         <v>42</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="3" t="s">
@@ -7615,7 +7609,7 @@
         <v>5.5</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E123" s="11" t="s">
         <v>862</v>
@@ -7650,7 +7644,7 @@
         <v>200</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>882</v>
+        <v>906</v>
       </c>
       <c r="E124" s="11"/>
       <c r="F124" s="3" t="s">
@@ -7683,10 +7677,10 @@
         <v>27.14</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>859</v>
@@ -7718,7 +7712,7 @@
         <v>11.4</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E126" s="11" t="s">
         <v>862</v>
@@ -7753,10 +7747,10 @@
         <v>350</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>859</v>
@@ -7788,10 +7782,10 @@
         <v>100</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>859</v>
@@ -7846,7 +7840,7 @@
         <v>125</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>881</v>
+        <v>905</v>
       </c>
       <c r="E129" s="11"/>
       <c r="F129" s="3" t="s">
@@ -7902,7 +7896,7 @@
         <v>340</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="E130" s="11"/>
       <c r="F130" s="3" t="s">
@@ -7958,7 +7952,7 @@
         <v>3675</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>879</v>
+        <v>904</v>
       </c>
       <c r="E131" s="16"/>
       <c r="F131" s="17" t="s">
@@ -8014,7 +8008,7 @@
         <v>1830</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>878</v>
+        <v>903</v>
       </c>
       <c r="E132" s="11"/>
       <c r="F132" s="3" t="s">
@@ -8070,10 +8064,10 @@
         <v>18.25</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>859</v>
@@ -8128,7 +8122,7 @@
         <v>68</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>877</v>
+        <v>902</v>
       </c>
       <c r="E134" s="11"/>
       <c r="F134" s="3" t="s">
@@ -8186,10 +8180,10 @@
         <v>118</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>859</v>
@@ -8246,10 +8240,10 @@
         <v>77</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>859</v>
@@ -8306,7 +8300,7 @@
         <v>990</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>880</v>
+        <v>909</v>
       </c>
       <c r="E137" s="11"/>
       <c r="F137" s="3" t="s">
@@ -8364,10 +8358,10 @@
         <v>40</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>859</v>
@@ -8424,10 +8418,10 @@
         <v>62</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>859</v>
@@ -8484,10 +8478,10 @@
         <v>30.5</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>859</v>
@@ -8544,7 +8538,7 @@
         <v>300</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="3" t="s">
@@ -8602,10 +8596,10 @@
         <v>5.6</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>859</v>
@@ -8662,7 +8656,7 @@
         <v>1500</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="E143" s="11"/>
       <c r="F143" s="3" t="s">
@@ -8716,7 +8710,7 @@
         <v>461.39</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="E144" s="11"/>
       <c r="F144" s="3" t="s">
@@ -8770,7 +8764,7 @@
         <v>764.42</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="E145" s="11"/>
       <c r="F145" s="3" t="s">
@@ -8824,7 +8818,7 @@
         <v>33</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E146" s="11" t="s">
         <v>862</v>
@@ -8859,7 +8853,7 @@
         <v>245</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="E147" s="11"/>
       <c r="F147" s="3" t="s">
@@ -8892,7 +8886,7 @@
         <v>340</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="E148" s="11"/>
       <c r="F148" s="3" t="s">
@@ -8925,10 +8919,10 @@
         <v>10</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>859</v>
@@ -8979,7 +8973,7 @@
         <v>155</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="E151" s="11"/>
       <c r="F151" s="3" t="s">
@@ -8989,7 +8983,7 @@
         <v>1</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="J151" s="3" t="s">
         <v>602</v>
@@ -9053,7 +9047,7 @@
         <v>144</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>864</v>
+        <v>893</v>
       </c>
       <c r="E154" s="11"/>
       <c r="F154" s="3" t="s">
@@ -9099,7 +9093,7 @@
         <v>62</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E156" s="11" t="s">
         <v>861</v>
@@ -9128,7 +9122,7 @@
         <v>127</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E157" s="11" t="s">
         <v>861</v>
@@ -9157,7 +9151,7 @@
         <v>153</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E158" s="11" t="s">
         <v>861</v>
@@ -9186,7 +9180,7 @@
         <v>324</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E159" s="11" t="s">
         <v>861</v>
@@ -9215,7 +9209,7 @@
         <v>7</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E160" s="11" t="s">
         <v>861</v>
@@ -9244,7 +9238,7 @@
         <v>45</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E161" s="11" t="s">
         <v>861</v>
@@ -9279,7 +9273,7 @@
         <v>279</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E162" s="11" t="s">
         <v>861</v>
@@ -9308,7 +9302,7 @@
         <v>94</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E163" s="11" t="s">
         <v>861</v>
@@ -9337,7 +9331,7 @@
         <v>120</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E164" s="11" t="s">
         <v>861</v>
@@ -9372,7 +9366,7 @@
         <v>6</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E165" s="11" t="s">
         <v>861</v>
@@ -9401,7 +9395,7 @@
         <v>353</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E166" s="11" t="s">
         <v>861</v>
@@ -9436,7 +9430,7 @@
         <v>36</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E167" s="11" t="s">
         <v>861</v>
@@ -9471,7 +9465,7 @@
         <v>440</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E168" s="11" t="s">
         <v>861</v>
@@ -9506,7 +9500,7 @@
         <v>640</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E169" s="11" t="s">
         <v>861</v>
@@ -9535,7 +9529,7 @@
         <v>251</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E170" s="11" t="s">
         <v>861</v>
@@ -9564,7 +9558,7 @@
         <v>131</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E171" s="11" t="s">
         <v>861</v>
@@ -9599,7 +9593,7 @@
         <v>488</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E172" s="11" t="s">
         <v>861</v>
@@ -9628,7 +9622,7 @@
         <v>256</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E173" s="11" t="s">
         <v>861</v>
@@ -9657,7 +9651,7 @@
         <v>170</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E174" s="11" t="s">
         <v>861</v>
@@ -9692,7 +9686,7 @@
         <v>557</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E175" s="11" t="s">
         <v>861</v>
@@ -9727,7 +9721,7 @@
         <v>512</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E176" s="11" t="s">
         <v>861</v>
@@ -9762,7 +9756,7 @@
         <v>133</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E177" s="11" t="s">
         <v>861</v>
@@ -9797,7 +9791,7 @@
         <v>114</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E178" s="11" t="s">
         <v>861</v>
@@ -9832,7 +9826,7 @@
         <v>311</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E179" s="11" t="s">
         <v>861</v>
@@ -9867,7 +9861,7 @@
         <v>202</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E180" s="11" t="s">
         <v>861</v>
@@ -9902,7 +9896,7 @@
         <v>88</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E181" s="11" t="s">
         <v>861</v>
@@ -9937,7 +9931,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="E182" s="11"/>
       <c r="F182" s="3" t="s">
@@ -9970,7 +9964,7 @@
         <v>52</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="E183" s="11"/>
       <c r="F183" s="3" t="s">
@@ -10003,7 +9997,7 @@
         <v>795</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="E184" s="11"/>
       <c r="F184" s="3" t="s">
@@ -10036,7 +10030,7 @@
         <v>24</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="E185" s="11"/>
       <c r="F185" s="3" t="s">
@@ -10063,7 +10057,7 @@
         <v>175</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="E186" s="11"/>
       <c r="F186" s="3" t="s">
@@ -10090,7 +10084,7 @@
         <v>29</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>870</v>
+        <v>907</v>
       </c>
       <c r="E187" s="11"/>
       <c r="F187" s="3" t="s">
@@ -10117,7 +10111,7 @@
         <v>22.5</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="E188" s="11"/>
       <c r="F188" s="3" t="s">
@@ -10150,7 +10144,7 @@
         <v>1.28</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="E189" s="13"/>
       <c r="F189" s="3" t="s">
@@ -10183,7 +10177,7 @@
         <v>1.28</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="E190" s="11"/>
       <c r="F190" s="3" t="s">
@@ -10210,7 +10204,7 @@
         <v>1.6</v>
       </c>
       <c r="D191" s="13" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="E191" s="13"/>
       <c r="F191" s="3" t="s">
@@ -10243,7 +10237,7 @@
         <v>1.6</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>871</v>
+        <v>901</v>
       </c>
       <c r="E192" s="11"/>
       <c r="F192" s="3" t="s">
@@ -10270,7 +10264,7 @@
         <v>4</v>
       </c>
       <c r="D193" s="13" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="E193" s="13"/>
       <c r="F193" s="3" t="s">
@@ -10303,7 +10297,7 @@
         <v>59.5</v>
       </c>
       <c r="D194" s="13" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="E194" s="13"/>
       <c r="F194" s="3" t="s">
@@ -10336,7 +10330,7 @@
         <v>84</v>
       </c>
       <c r="D195" s="13" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="E195" s="13"/>
       <c r="F195" s="3" t="s">
@@ -10369,7 +10363,7 @@
         <v>170</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="E196" s="11"/>
       <c r="F196" s="3" t="s">
@@ -10396,7 +10390,7 @@
         <v>39</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E197" s="11" t="s">
         <v>861</v>
@@ -10431,7 +10425,7 @@
         <v>88</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E198" s="11" t="s">
         <v>861</v>
@@ -10466,7 +10460,7 @@
         <v>43</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E199" s="11" t="s">
         <v>861</v>
@@ -10495,7 +10489,7 @@
         <v>10</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E200" s="11" t="s">
         <v>861</v>
@@ -10524,7 +10518,7 @@
         <v>18</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E201" s="11" t="s">
         <v>861</v>
@@ -10553,7 +10547,7 @@
         <v>16</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E202" s="11" t="s">
         <v>861</v>
@@ -10582,7 +10576,7 @@
         <v>28.5</v>
       </c>
       <c r="D203" s="13" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="E203" s="13"/>
       <c r="F203" s="3" t="s">
@@ -10615,7 +10609,7 @@
         <v>39</v>
       </c>
       <c r="D204" s="13" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="E204" s="13"/>
       <c r="F204" s="3" t="s">
@@ -10648,7 +10642,7 @@
         <v>100</v>
       </c>
       <c r="D205" s="13" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="E205" s="13"/>
       <c r="F205" s="3" t="s">
@@ -10681,7 +10675,7 @@
         <v>200</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E206" s="11" t="s">
         <v>861</v>
@@ -10710,7 +10704,7 @@
         <v>100</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E207" s="11" t="s">
         <v>861</v>
@@ -10739,7 +10733,7 @@
         <v>323</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E208" s="11" t="s">
         <v>861</v>
@@ -10774,7 +10768,7 @@
         <v>46</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E209" s="11" t="s">
         <v>861</v>
@@ -10809,7 +10803,7 @@
         <v>244</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E210" s="11" t="s">
         <v>861</v>
@@ -10838,7 +10832,7 @@
         <v>409</v>
       </c>
       <c r="D211" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E211" s="11" t="s">
         <v>861</v>
@@ -10867,7 +10861,7 @@
         <v>74</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E212" s="11" t="s">
         <v>861</v>
@@ -10902,7 +10896,7 @@
         <v>74</v>
       </c>
       <c r="D213" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E213" s="11" t="s">
         <v>861</v>
@@ -10931,7 +10925,7 @@
         <v>87</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E214" s="11" t="s">
         <v>861</v>
@@ -10960,7 +10954,7 @@
         <v>121</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E215" s="11" t="s">
         <v>861</v>
@@ -10995,7 +10989,7 @@
         <v>14.8</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="E216" s="11"/>
       <c r="F216" s="3" t="s">
@@ -11021,8 +11015,8 @@
       <c r="C217" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="D217" s="11" t="s">
-        <v>875</v>
+      <c r="D217" s="15" t="s">
+        <v>870</v>
       </c>
       <c r="E217" s="11"/>
       <c r="F217" s="3" t="s">
@@ -11049,10 +11043,10 @@
         <v>2.8</v>
       </c>
       <c r="D218" s="11" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="E218" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>859</v>
@@ -11078,7 +11072,7 @@
         <v>7.3</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E219" s="11" t="s">
         <v>862</v>
@@ -11107,7 +11101,7 @@
         <v>8.4</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E220" s="11" t="s">
         <v>862</v>
@@ -11136,7 +11130,7 @@
         <v>270</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="E221" s="11"/>
       <c r="F221" s="3" t="s">
@@ -11169,10 +11163,10 @@
         <v>170</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="E222" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F222" s="3" t="s">
         <v>859</v>
@@ -11204,7 +11198,7 @@
         <v>683</v>
       </c>
       <c r="D223" s="15" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="E223" s="11"/>
       <c r="F223" s="3" t="s">
@@ -11231,7 +11225,7 @@
         <v>315</v>
       </c>
       <c r="D224" s="11" t="s">
-        <v>876</v>
+        <v>900</v>
       </c>
       <c r="E224" s="11"/>
       <c r="F224" s="3" t="s">
@@ -11258,7 +11252,7 @@
         <v>2480</v>
       </c>
       <c r="D225" s="11" t="s">
-        <v>876</v>
+        <v>900</v>
       </c>
       <c r="E225" s="11"/>
       <c r="F225" s="3" t="s">
@@ -11285,7 +11279,7 @@
         <v>201</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E226" s="11" t="s">
         <v>861</v>
@@ -11320,7 +11314,7 @@
         <v>164</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E227" s="11" t="s">
         <v>861</v>
@@ -11349,7 +11343,7 @@
         <v>440</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E228" s="11" t="s">
         <v>861</v>
@@ -11378,7 +11372,7 @@
         <v>304</v>
       </c>
       <c r="D229" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E229" s="11" t="s">
         <v>861</v>
@@ -11407,7 +11401,7 @@
         <v>501</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E230" s="11" t="s">
         <v>861</v>
@@ -11442,7 +11436,7 @@
         <v>37</v>
       </c>
       <c r="D231" s="11" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="E231" s="11" t="s">
         <v>862</v>
@@ -11477,7 +11471,7 @@
         <v>103</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="E232" s="11"/>
       <c r="F232" s="3" t="s">
@@ -11504,7 +11498,7 @@
         <v>183</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="E233" s="11"/>
       <c r="F233" s="3" t="s">
@@ -11531,7 +11525,7 @@
         <v>78</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E234" s="11" t="s">
         <v>861</v>
@@ -11560,7 +11554,7 @@
         <v>323</v>
       </c>
       <c r="D235" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E235" s="11" t="s">
         <v>861</v>
@@ -11589,7 +11583,7 @@
         <v>39</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E236" s="11" t="s">
         <v>861</v>
@@ -11618,7 +11612,7 @@
         <v>446</v>
       </c>
       <c r="D237" s="11" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="E237" s="11" t="s">
         <v>861</v>

--- a/app/data/Reference Data for CS Mid Tier and Higher Tier Options and Capital Items.xlsx
+++ b/app/data/Reference Data for CS Mid Tier and Higher Tier Options and Capital Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattfielding/projects/defra/local-nature-recovery-prototype/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B90054-0521-8D4F-95EE-48DED883D320}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331B4D65-EA15-1845-8858-55C2FEB60A3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="540" windowWidth="31500" windowHeight="26200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="540" windowWidth="50820" windowHeight="26200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grants" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="1023">
   <si>
     <t>Option</t>
   </si>
@@ -3053,6 +3053,99 @@
   </si>
   <si>
     <t>If successful there will be a completed plan detailing how to carry out the work for an option and how to meet the requirements of that option.</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/countryside-stewardship-grants/equipment-to-disrupt-tramlines-in-arable-areas-rp31</t>
+  </si>
+  <si>
+    <t>It will support the purchase of equipment that can loosen soil that has compacted in wheeled tramlines. This will help reduce surface runoff, risk of soil erosion damage and water pollution.</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/countryside-stewardship-grants/rp32-small-leaky-woody-dams</t>
+  </si>
+  <si>
+    <t>Leaky woody dams slow the movement of water and help push flows onto the floodplain during floods. This increases temporary storage of flood waters within water channels and out on to the floodplain, helping delay the passage of flood water downstream, allowing sediment to settle out, and reduce downstream flood risk.</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/countryside-stewardship-grants/rp33-large-leaky-woody-dams</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/countryside-stewardship-grants/constructed-wetlands-for-the-treatment-of-pollution-rp8</t>
+  </si>
+  <si>
+    <t>It will create and maintain a wetland features to treat lightly fouled or polluted water, generated from normal agricultural activities. This will help reduce the risk of sediment and other pollutants entering a nearby watercourse.</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/countryside-stewardship-grants/scrub-control-and-felling-diseased-trees-sb1</t>
+  </si>
+  <si>
+    <t>It will restore or maintain priority habitats and protect historic or archaeological features. It will prevent disease spreading from infected sites to the wider environment.</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/countryside-stewardship-grants/scrub-control-difficult-sites-sb2</t>
+  </si>
+  <si>
+    <t>only on sites that either:
+need specialist operations or machinery, with costs that cannot be covered by the scheme’s fixed-rate scrub control payments - this includes sensitive habitats and areas with difficult or hazardous working conditions, such as steep slopes, bogs and islands, or
+have it as a requirement of an approved Forestry Commission woodland management plan</t>
+  </si>
+  <si>
+    <t>It will support the removal of trees, helping to restore open habitats or prevent damage to environmental features.</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/countryside-stewardship-grants/tree-removal-sb3</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/countryside-stewardship-grants/rhododendron-control-sb6</t>
+  </si>
+  <si>
+    <t>It supports rhododendron control, reducing the negative effect this can have on a site.
+Rhododendron reduces the biodiversity value of a site, hindering woodland regeneration and, once established, is difficult and costly to eradicate.
+Rhododendron can also be a host for the fungus-like pathogen Phytophthora ramorum, which affects larch.</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/countryside-stewardship-grants/difficult-sites-supplement-sp1</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/countryside-stewardship-grants/raised-water-level-supplement-sp2</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/countryside-stewardship-grants/bracken-control-supplement-sp3</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/countryside-stewardship-grants/control-of-invasive-plant-species-supplement-sp4</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/countryside-stewardship-grants/shepherding-supplement-sp5</t>
+  </si>
+  <si>
+    <t>It supports the management of particularly difficult sites. It also retains small fields and their locally characteristic boundary pattern.</t>
+  </si>
+  <si>
+    <t>It is for raising or maintaining water levels in ditches and adjacent land.
+Suitable water levels will be maintained on the option the supplement’s applied to.</t>
+  </si>
+  <si>
+    <t>It controls the spread of, or removes, existing dense stands of bracken. This will maintain or restore biodiversity value and protect archaeological sites.
+If successful the underlying vegetation will develop and spread, and will develop a diverse mosaic structure and composition, including undisturbed bare ground and varied vegetation types.
+Successfully managing the remaining vegetation (usually by grazing or cutting) will reduce the chances of bracken spreading back. Locally characteristic plant communities and the species they support will expand or even colonise the site.</t>
+  </si>
+  <si>
+    <t>It supports the active management and eradication of particularly severe infestations of invasive non-native species that are damaging a feature of interest, such as:
+Himalayan balsam
+Japanese knotweed
+floating pennywort and other invasive aquatic plants
+Active management is needed to maintain or restore wildlife value or protect archaeological features.
+If successful there should be a reduction in cover and density of non-native invasive species. Native plants and animals will re-establish the area cleared, returning a more natural balance to the habitat.</t>
+  </si>
+  <si>
+    <t>If successful there will be:
+improvements in the quality of vegetation
+overgrazing reduced in some areas and increased in others
+better habitats for birds, mammals and insects
+less damage to archaeological features and vulnerable soils and less poaching (trampling)
+more suitable conditions for threatened species to thrive
+improved visibility of historic and archaeological features</t>
   </si>
 </sst>
 </file>
@@ -3892,19 +3985,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I116" sqref="I116"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M162" sqref="M162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="40.140625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" style="3" customWidth="1"/>
-    <col min="7" max="10" width="18.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="53.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="11" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="28" style="3" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="3" customWidth="1"/>
     <col min="11" max="11" width="25.28515625" style="3" customWidth="1"/>
     <col min="12" max="12" width="19.85546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="110" style="3" customWidth="1"/>
+    <col min="13" max="13" width="50.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -9431,7 +9529,7 @@
       <c r="AJ141" s="5"/>
       <c r="AK141" s="5"/>
     </row>
-    <row r="142" spans="1:37" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:37" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>361</v>
       </c>
@@ -9492,7 +9590,7 @@
       <c r="AJ142" s="5"/>
       <c r="AK142" s="5"/>
     </row>
-    <row r="143" spans="1:37" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:37" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>636</v>
       </c>
@@ -9521,8 +9619,12 @@
       <c r="L143" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M143" s="3"/>
-      <c r="N143"/>
+      <c r="M143" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="N143" t="s">
+        <v>998</v>
+      </c>
       <c r="O143" s="5"/>
       <c r="P143" s="5"/>
       <c r="Q143" s="5"/>
@@ -9547,7 +9649,7 @@
       <c r="AJ143" s="5"/>
       <c r="AK143" s="5"/>
     </row>
-    <row r="144" spans="1:37" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:37" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>638</v>
       </c>
@@ -9576,8 +9678,12 @@
       <c r="L144" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M144" s="3"/>
-      <c r="N144"/>
+      <c r="M144" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N144" t="s">
+        <v>1000</v>
+      </c>
       <c r="O144" s="5"/>
       <c r="P144" s="5"/>
       <c r="Q144" s="5"/>
@@ -9602,7 +9708,7 @@
       <c r="AJ144" s="5"/>
       <c r="AK144" s="5"/>
     </row>
-    <row r="145" spans="1:37" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:37" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>633</v>
       </c>
@@ -9631,8 +9737,12 @@
       <c r="L145" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M145" s="3"/>
-      <c r="N145"/>
+      <c r="M145" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N145" t="s">
+        <v>1002</v>
+      </c>
       <c r="O145" s="5"/>
       <c r="P145" s="5"/>
       <c r="Q145" s="5"/>
@@ -9657,7 +9767,7 @@
       <c r="AJ145" s="5"/>
       <c r="AK145" s="5"/>
     </row>
-    <row r="146" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:37" ht="85" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>365</v>
       </c>
@@ -9761,7 +9871,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="149" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:37" ht="85" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>377</v>
       </c>
@@ -9796,7 +9906,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="150" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:37" ht="68" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>754</v>
       </c>
@@ -9814,8 +9924,14 @@
       <c r="L150" s="3" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="151" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+      <c r="M150" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="N150" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="151" spans="1:37" ht="68" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>381</v>
       </c>
@@ -9851,7 +9967,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="152" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>704</v>
       </c>
@@ -9869,8 +9985,14 @@
       <c r="L152" s="3" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="153" spans="1:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="M152" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="N152" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="153" spans="1:37" ht="153" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>700</v>
       </c>
@@ -9888,6 +10010,12 @@
       <c r="L153" s="3" t="s">
         <v>605</v>
       </c>
+      <c r="M153" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="N153" t="s">
+        <v>1007</v>
+      </c>
     </row>
     <row r="154" spans="1:37" ht="34" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
@@ -9915,8 +10043,14 @@
       <c r="L154" s="3" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="155" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+      <c r="M154" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N154" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="155" spans="1:37" ht="153" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>752</v>
       </c>
@@ -9934,8 +10068,14 @@
       <c r="L155" s="3" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="156" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="M155" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="N155" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="156" spans="1:37" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>827</v>
       </c>
@@ -9966,8 +10106,14 @@
       <c r="L156" s="3" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="157" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="M156" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="N156" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="157" spans="1:37" ht="85" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>826</v>
       </c>
@@ -9998,8 +10144,14 @@
       <c r="L157" s="3" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="158" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="M157" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N157" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="158" spans="1:37" ht="221" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>825</v>
       </c>
@@ -10030,8 +10182,14 @@
       <c r="L158" s="3" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="159" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="M158" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="N158" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="159" spans="1:37" ht="238" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>823</v>
       </c>
@@ -10062,8 +10220,14 @@
       <c r="L159" s="3" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="160" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="M159" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="N159" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="160" spans="1:37" ht="153" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>807</v>
       </c>
@@ -10094,8 +10258,14 @@
       <c r="L160" s="3" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="M160" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="N160" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>385</v>
       </c>

--- a/app/data/Reference Data for CS Mid Tier and Higher Tier Options and Capital Items.xlsx
+++ b/app/data/Reference Data for CS Mid Tier and Higher Tier Options and Capital Items.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattfielding/projects/defra/local-nature-recovery-prototype/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331B4D65-EA15-1845-8858-55C2FEB60A3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF8EF25-3D3D-B44E-A46D-AD8A26A2B032}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="540" windowWidth="50820" windowHeight="26200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="1020" windowWidth="50820" windowHeight="26200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grants" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">grants!$A$1:$N$237</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">grants!$A$1:$O$237</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="1045">
   <si>
     <t>Option</t>
   </si>
@@ -3147,12 +3148,458 @@
 more suitable conditions for threatened species to thrive
 improved visibility of historic and archaeological features</t>
   </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>polinators, water</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AB2 Basic overwinter stubble (or OP1 Overwintered stubble)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">AB3: Beetle banks </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">AB4: Skylark plots </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">AB5: Nesting plots for lapwing (and in Higher Tier, stone curlew) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AB6 Enhanced overwinter stubble</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AB7 Whole crop cereals</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AB8 Flower-rich margins and plots</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AB9 Winter bird food (or OP2 Wild bird seed mixture)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AB11 Cultivated areas for arable plants*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AB13 Brassica fodder crops</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">AB15 Two-year sown legume fallow </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AB16 Autumn sown Bumblebird mix</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GS2 Permanent grassland with very low inputs (outside SDA)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GS4 Legume and herb-rich swards (or OP4 Multi-species ley)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GS17 Lenient grazing supplement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GS3 Ryegrass seed-set as winter/spring food</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">GS1: Take small areas out of management </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">WT2: Buffering in-field ponds and ditches on arable land </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">WT1: Buffering in-field ponds and ditches in improved grassland </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">AB1 Nectar flower mix </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3280,6 +3727,18 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -3629,7 +4088,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3661,6 +4120,15 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3983,10 +4451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK246"/>
+  <dimension ref="A1:AL246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M162" sqref="M162"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3996,16 +4464,16 @@
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="11" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="28" style="3" customWidth="1"/>
     <col min="9" max="9" width="27.28515625" style="3" customWidth="1"/>
     <col min="10" max="10" width="18.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="50.140625" style="3" customWidth="1"/>
+    <col min="11" max="12" width="25.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="50.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>855</v>
       </c>
@@ -4040,16 +4508,19 @@
         <v>851</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4081,16 +4552,19 @@
         <v>567</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4119,16 +4593,19 @@
         <v>568</v>
       </c>
       <c r="L3" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4157,16 +4634,19 @@
         <v>569</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4194,17 +4674,17 @@
       <c r="K5" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -4232,17 +4712,17 @@
       <c r="K6" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -4270,17 +4750,17 @@
       <c r="K7" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -4308,17 +4788,17 @@
       <c r="K8" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -4346,17 +4826,17 @@
       <c r="K9" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -4386,17 +4866,18 @@
       <c r="K10" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="4"/>
+      <c r="M10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -4426,17 +4907,18 @@
       <c r="K11" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="4"/>
+      <c r="M11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -4466,17 +4948,18 @@
       <c r="K12" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="4"/>
+      <c r="M12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -4506,17 +4989,18 @@
       <c r="K13" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="4"/>
+      <c r="M13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -4546,17 +5030,18 @@
       <c r="K14" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="4"/>
+      <c r="M14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -4586,17 +5071,18 @@
       <c r="K15" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="4"/>
+      <c r="M15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -4624,17 +5110,17 @@
       <c r="K16" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -4662,17 +5148,17 @@
       <c r="K17" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>779</v>
       </c>
@@ -4699,17 +5185,17 @@
       <c r="K18" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>721</v>
       </c>
@@ -4738,17 +5224,17 @@
       <c r="K19" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -4776,17 +5262,17 @@
       <c r="K20" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -4814,17 +5300,17 @@
       <c r="K21" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -4852,17 +5338,17 @@
       <c r="K22" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>488</v>
       </c>
@@ -4890,17 +5376,17 @@
       <c r="K23" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>670</v>
       </c>
@@ -4928,17 +5414,17 @@
       <c r="K24" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="170" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>611</v>
       </c>
@@ -4964,17 +5450,18 @@
       <c r="K25" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="4"/>
+      <c r="M25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="N25" s="6" t="s">
         <v>923</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>492</v>
       </c>
@@ -4997,17 +5484,17 @@
       <c r="K26" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -5035,17 +5522,17 @@
       <c r="K27" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
@@ -5073,17 +5560,17 @@
       <c r="K28" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -5111,17 +5598,17 @@
       <c r="K29" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -5149,17 +5636,17 @@
       <c r="K30" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -5187,17 +5674,17 @@
       <c r="K31" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -5225,17 +5712,17 @@
       <c r="K32" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -5263,17 +5750,17 @@
       <c r="K33" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -5301,17 +5788,17 @@
       <c r="K34" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -5339,17 +5826,17 @@
       <c r="K35" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="M35" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>111</v>
       </c>
@@ -5377,17 +5864,17 @@
       <c r="K36" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="M36" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -5415,17 +5902,17 @@
       <c r="K37" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -5453,17 +5940,17 @@
       <c r="K38" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="M38" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -5491,17 +5978,17 @@
       <c r="K39" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>777</v>
       </c>
@@ -5529,17 +6016,17 @@
       <c r="K40" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="M40" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="O40" s="1" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>669</v>
       </c>
@@ -5569,17 +6056,18 @@
       <c r="K41" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="L41" s="3"/>
+      <c r="M41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="1" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" s="1" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>719</v>
       </c>
@@ -5609,17 +6097,18 @@
       <c r="K42" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="L42" s="3"/>
+      <c r="M42" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="1" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" s="1" customFormat="1" ht="340" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>666</v>
       </c>
@@ -5649,17 +6138,18 @@
       <c r="K43" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="L43" s="3"/>
+      <c r="M43" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="N43" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>662</v>
       </c>
@@ -5689,17 +6179,18 @@
       <c r="K44" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="L44" s="3"/>
+      <c r="M44" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="N44" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>717</v>
       </c>
@@ -5727,17 +6218,17 @@
       <c r="K45" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>828</v>
       </c>
@@ -5765,17 +6256,17 @@
       <c r="K46" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="M46" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="N46" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>716</v>
       </c>
@@ -5803,17 +6294,17 @@
       <c r="K47" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>559</v>
       </c>
@@ -5834,17 +6325,18 @@
         <v>1</v>
       </c>
       <c r="K48" s="6"/>
-      <c r="L48" s="6" t="s">
+      <c r="L48" s="6"/>
+      <c r="M48" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="M48" s="6" t="s">
+      <c r="N48" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="N48" s="5" t="s">
+      <c r="O48" s="5" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>126</v>
       </c>
@@ -5872,17 +6364,17 @@
       <c r="K49" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="M49" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="N49" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>771</v>
       </c>
@@ -5910,17 +6402,17 @@
       <c r="K50" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="M50" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M50" s="3" t="s">
+      <c r="N50" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>627</v>
       </c>
@@ -5946,17 +6438,17 @@
       <c r="K51" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="L51" s="3" t="s">
+      <c r="M51" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M51" s="3" t="s">
+      <c r="N51" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>523</v>
       </c>
@@ -5982,17 +6474,18 @@
       <c r="K52" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="L52" s="6" t="s">
+      <c r="L52" s="6"/>
+      <c r="M52" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="M52" s="6" t="s">
+      <c r="N52" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="N52" s="5" t="s">
+      <c r="O52" s="5" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>526</v>
       </c>
@@ -6018,17 +6511,18 @@
       <c r="K53" s="6" t="s">
         <v>797</v>
       </c>
-      <c r="L53" s="6" t="s">
+      <c r="L53" s="6"/>
+      <c r="M53" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="M53" s="6" t="s">
+      <c r="N53" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="N53" s="5" t="s">
+      <c r="O53" s="5" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>130</v>
       </c>
@@ -6054,17 +6548,17 @@
       <c r="K54" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="L54" s="3" t="s">
+      <c r="M54" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M54" s="3" t="s">
+      <c r="N54" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>134</v>
       </c>
@@ -6092,17 +6586,17 @@
       <c r="K55" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="L55" s="3" t="s">
+      <c r="M55" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M55" s="3" t="s">
+      <c r="N55" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>138</v>
       </c>
@@ -6130,17 +6624,17 @@
       <c r="K56" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="L56" s="3" t="s">
+      <c r="M56" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M56" s="3" t="s">
+      <c r="N56" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>519</v>
       </c>
@@ -6168,17 +6662,18 @@
       <c r="K57" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="L57" s="6" t="s">
+      <c r="L57" s="6"/>
+      <c r="M57" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="M57" s="6" t="s">
+      <c r="N57" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="N57" s="5" t="s">
+      <c r="O57" s="5" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>644</v>
       </c>
@@ -6206,17 +6701,17 @@
       <c r="K58" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="M58" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="N58" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>776</v>
       </c>
@@ -6244,17 +6739,17 @@
       <c r="K59" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="L59" s="3" t="s">
+      <c r="M59" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M59" s="3" t="s">
+      <c r="N59" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>772</v>
       </c>
@@ -6282,17 +6777,17 @@
       <c r="K60" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="L60" s="3" t="s">
+      <c r="M60" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M60" s="3" t="s">
+      <c r="N60" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="N60" t="s">
+      <c r="O60" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>642</v>
       </c>
@@ -6320,17 +6815,17 @@
       <c r="K61" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="L61" s="3" t="s">
+      <c r="M61" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M61" s="3" t="s">
+      <c r="N61" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>767</v>
       </c>
@@ -6345,17 +6840,17 @@
       <c r="K62" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="L62" s="3" t="s">
+      <c r="M62" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M62" s="3" t="s">
+      <c r="N62" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>713</v>
       </c>
@@ -6370,17 +6865,17 @@
       <c r="K63" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="L63" s="3" t="s">
+      <c r="M63" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M63" s="3" t="s">
+      <c r="N63" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>766</v>
       </c>
@@ -6403,17 +6898,17 @@
       <c r="K64" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="L64" s="3" t="s">
+      <c r="M64" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M64" s="3" t="s">
+      <c r="N64" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>639</v>
       </c>
@@ -6428,17 +6923,17 @@
       <c r="K65" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="L65" s="3" t="s">
+      <c r="M65" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M65" s="3" t="s">
+      <c r="N65" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>141</v>
       </c>
@@ -6466,17 +6961,17 @@
       <c r="K66" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="L66" s="3" t="s">
+      <c r="M66" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M66" s="3" t="s">
+      <c r="N66" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>504</v>
       </c>
@@ -6504,17 +6999,18 @@
       <c r="K67" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="L67" s="4" t="s">
+      <c r="L67" s="4"/>
+      <c r="M67" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="M67" s="3" t="s">
+      <c r="N67" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>660</v>
       </c>
@@ -6542,17 +7038,17 @@
       <c r="K68" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="L68" s="3" t="s">
+      <c r="M68" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M68" s="3" t="s">
+      <c r="N68" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>659</v>
       </c>
@@ -6580,17 +7076,17 @@
       <c r="K69" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="L69" s="3" t="s">
+      <c r="M69" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M69" s="3" t="s">
+      <c r="N69" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O69" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>621</v>
       </c>
@@ -6618,17 +7114,17 @@
       <c r="K70" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="L70" s="3" t="s">
+      <c r="M70" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M70" s="3" t="s">
+      <c r="N70" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>622</v>
       </c>
@@ -6656,17 +7152,17 @@
       <c r="K71" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="L71" s="3" t="s">
+      <c r="M71" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M71" s="3" t="s">
+      <c r="N71" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>169</v>
       </c>
@@ -6694,17 +7190,17 @@
       <c r="K72" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="L72" s="3" t="s">
+      <c r="M72" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="M72" s="3" t="s">
+      <c r="N72" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>145</v>
       </c>
@@ -6732,17 +7228,17 @@
       <c r="K73" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="L73" s="3" t="s">
+      <c r="M73" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="M73" s="3" t="s">
+      <c r="N73" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>149</v>
       </c>
@@ -6770,17 +7266,17 @@
       <c r="K74" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="L74" s="3" t="s">
+      <c r="M74" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="M74" s="3" t="s">
+      <c r="N74" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="N74" t="s">
+      <c r="O74" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>153</v>
       </c>
@@ -6808,17 +7304,18 @@
       <c r="K75" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="L75" s="4" t="s">
+      <c r="L75" s="4"/>
+      <c r="M75" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="M75" s="4" t="s">
+      <c r="N75" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="N75" s="1" t="s">
+      <c r="O75" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>157</v>
       </c>
@@ -6846,17 +7343,18 @@
       <c r="K76" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="L76" s="3" t="s">
+      <c r="L76" s="4"/>
+      <c r="M76" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M76" s="4" t="s">
+      <c r="N76" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="N76" s="1" t="s">
+      <c r="O76" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>161</v>
       </c>
@@ -6886,17 +7384,18 @@
       <c r="K77" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="L77" s="3" t="s">
+      <c r="L77" s="4"/>
+      <c r="M77" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M77" s="4" t="s">
+      <c r="N77" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="N77" s="1" t="s">
+      <c r="O77" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>165</v>
       </c>
@@ -6924,17 +7423,18 @@
       <c r="K78" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="L78" s="4" t="s">
+      <c r="L78" s="4"/>
+      <c r="M78" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="M78" s="4" t="s">
+      <c r="N78" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="N78" s="1" t="s">
+      <c r="O78" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>496</v>
       </c>
@@ -6962,17 +7462,18 @@
       <c r="K79" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="L79" s="4" t="s">
+      <c r="L79" s="4"/>
+      <c r="M79" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="M79" s="3" t="s">
+      <c r="N79" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="N79" t="s">
+      <c r="O79" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>615</v>
       </c>
@@ -7000,17 +7501,17 @@
       <c r="K80" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="L80" s="3" t="s">
+      <c r="M80" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M80" s="3" t="s">
+      <c r="N80" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="N80" t="s">
+      <c r="O80" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>618</v>
       </c>
@@ -7038,17 +7539,17 @@
       <c r="K81" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="L81" s="3" t="s">
+      <c r="M81" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M81" s="3" t="s">
+      <c r="N81" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="N81" t="s">
+      <c r="O81" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>500</v>
       </c>
@@ -7076,17 +7577,18 @@
       <c r="K82" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="L82" s="4" t="s">
+      <c r="L82" s="4"/>
+      <c r="M82" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="M82" s="3" t="s">
+      <c r="N82" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="N82" t="s">
+      <c r="O82" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>712</v>
       </c>
@@ -7101,17 +7603,17 @@
       <c r="K83" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="N83" s="1" t="s">
+      <c r="O83" s="1" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>762</v>
       </c>
@@ -7134,17 +7636,17 @@
       <c r="K84" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="L84" s="3" t="s">
+      <c r="M84" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M84" s="3" t="s">
+      <c r="N84" s="3" t="s">
         <v>975</v>
       </c>
-      <c r="N84" s="1" t="s">
+      <c r="O84" s="1" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>173</v>
       </c>
@@ -7169,17 +7671,17 @@
       <c r="K85" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="L85" s="3" t="s">
+      <c r="M85" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M85" s="3" t="s">
+      <c r="N85" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="N85" t="s">
+      <c r="O85" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>177</v>
       </c>
@@ -7207,17 +7709,17 @@
       <c r="K86" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="L86" s="3" t="s">
+      <c r="M86" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M86" s="3" t="s">
+      <c r="N86" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="N86" t="s">
+      <c r="O86" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -7245,17 +7747,17 @@
       <c r="K87" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="L87" s="3" t="s">
+      <c r="M87" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M87" s="3" t="s">
+      <c r="N87" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>185</v>
       </c>
@@ -7283,17 +7785,17 @@
       <c r="K88" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="L88" s="3" t="s">
+      <c r="M88" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M88" s="3" t="s">
+      <c r="N88" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="N88" t="s">
+      <c r="O88" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>189</v>
       </c>
@@ -7321,17 +7823,17 @@
       <c r="K89" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="L89" s="3" t="s">
+      <c r="M89" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
+      <c r="N89" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="N89" t="s">
+      <c r="O89" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>193</v>
       </c>
@@ -7359,17 +7861,17 @@
       <c r="K90" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="L90" s="3" t="s">
+      <c r="M90" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M90" s="3" t="s">
+      <c r="N90" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="N90" t="s">
+      <c r="O90" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="91" spans="1:14" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>710</v>
       </c>
@@ -7399,17 +7901,18 @@
       <c r="K91" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="L91" s="3"/>
+      <c r="M91" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="N91" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="N91" t="s">
+      <c r="O91" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="92" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>197</v>
       </c>
@@ -7439,17 +7942,18 @@
       <c r="K92" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="L92" s="3" t="s">
+      <c r="L92" s="3"/>
+      <c r="M92" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M92" s="3" t="s">
+      <c r="N92" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="N92" t="s">
+      <c r="O92" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>200</v>
       </c>
@@ -7479,17 +7983,18 @@
       <c r="K93" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="L93" s="3" t="s">
+      <c r="L93" s="3"/>
+      <c r="M93" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M93" s="3" t="s">
+      <c r="N93" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="N93" t="s">
+      <c r="O93" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="94" spans="1:14" s="1" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" s="1" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>733</v>
       </c>
@@ -7519,17 +8024,18 @@
       <c r="K94" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="L94" s="3"/>
+      <c r="M94" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="N94" t="s">
+      <c r="O94" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="187" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="289" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>731</v>
       </c>
@@ -7557,17 +8063,17 @@
       <c r="K95" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="L95" s="3" t="s">
+      <c r="M95" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M95" s="3" t="s">
+      <c r="N95" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="N95" t="s">
+      <c r="O95" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="289" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>624</v>
       </c>
@@ -7595,17 +8101,17 @@
       <c r="K96" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="L96" s="3" t="s">
+      <c r="M96" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M96" s="3" t="s">
+      <c r="N96" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="N96" t="s">
+      <c r="O96" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>760</v>
       </c>
@@ -7628,17 +8134,17 @@
       <c r="K97" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="L97" s="3" t="s">
+      <c r="M97" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M97" s="3" t="s">
+      <c r="N97" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="N97" t="s">
+      <c r="O97" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>757</v>
       </c>
@@ -7664,17 +8170,17 @@
       <c r="K98" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="L98" s="3" t="s">
+      <c r="M98" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M98" s="3" t="s">
+      <c r="N98" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="N98" t="s">
+      <c r="O98" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>204</v>
       </c>
@@ -7697,17 +8203,17 @@
       <c r="K99" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="L99" s="3" t="s">
+      <c r="M99" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M99" s="3" t="s">
+      <c r="N99" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="N99" t="s">
+      <c r="O99" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>208</v>
       </c>
@@ -7730,17 +8236,17 @@
       <c r="K100" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="N100" t="s">
+      <c r="O100" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>212</v>
       </c>
@@ -7763,17 +8269,17 @@
       <c r="K101" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="N101" t="s">
+      <c r="O101" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="102" spans="1:14" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>216</v>
       </c>
@@ -7799,17 +8305,18 @@
       <c r="K102" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="L102" s="3"/>
+      <c r="M102" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="N102" t="s">
+      <c r="O102" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="103" spans="1:14" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>219</v>
       </c>
@@ -7835,17 +8342,18 @@
       <c r="K103" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="L103" s="3" t="s">
+      <c r="L103" s="3"/>
+      <c r="M103" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M103" s="3" t="s">
+      <c r="N103" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="N103" t="s">
+      <c r="O103" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="104" spans="1:14" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>223</v>
       </c>
@@ -7875,17 +8383,18 @@
       <c r="K104" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="L104" s="3" t="s">
+      <c r="L104" s="3"/>
+      <c r="M104" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M104" s="3" t="s">
+      <c r="N104" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="N104" t="s">
+      <c r="O104" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="105" spans="1:14" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>226</v>
       </c>
@@ -7915,17 +8424,18 @@
       <c r="K105" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="L105" s="3" t="s">
+      <c r="L105" s="3"/>
+      <c r="M105" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M105" s="3" t="s">
+      <c r="N105" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="N105" t="s">
+      <c r="O105" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="106" spans="1:14" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>230</v>
       </c>
@@ -7955,17 +8465,18 @@
       <c r="K106" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="L106" s="3" t="s">
+      <c r="L106" s="3"/>
+      <c r="M106" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M106" s="3" t="s">
+      <c r="N106" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="N106" t="s">
+      <c r="O106" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="107" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" s="1" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>234</v>
       </c>
@@ -7987,17 +8498,18 @@
       <c r="K107" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="L107" s="3" t="s">
+      <c r="L107" s="3"/>
+      <c r="M107" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M107" s="3" t="s">
+      <c r="N107" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="N107" t="s">
+      <c r="O107" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="108" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>238</v>
       </c>
@@ -8027,17 +8539,18 @@
       <c r="K108" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="L108" s="3" t="s">
+      <c r="L108" s="3"/>
+      <c r="M108" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M108" s="3" t="s">
+      <c r="N108" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="N108" t="s">
+      <c r="O108" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="109" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>242</v>
       </c>
@@ -8067,17 +8580,18 @@
       <c r="K109" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="L109" s="3" t="s">
+      <c r="L109" s="3"/>
+      <c r="M109" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M109" s="3" t="s">
+      <c r="N109" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="N109" t="s">
+      <c r="O109" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="110" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>246</v>
       </c>
@@ -8107,17 +8621,18 @@
       <c r="K110" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="L110" s="3" t="s">
+      <c r="L110" s="3"/>
+      <c r="M110" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M110" s="3" t="s">
+      <c r="N110" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="N110" t="s">
+      <c r="O110" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="111" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>250</v>
       </c>
@@ -8147,17 +8662,18 @@
       <c r="K111" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="L111" s="3" t="s">
+      <c r="L111" s="3"/>
+      <c r="M111" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M111" s="3" t="s">
+      <c r="N111" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="N111" t="s">
+      <c r="O111" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="112" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>254</v>
       </c>
@@ -8187,17 +8703,18 @@
       <c r="K112" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="L112" s="3" t="s">
+      <c r="L112" s="3"/>
+      <c r="M112" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M112" s="3" t="s">
+      <c r="N112" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="N112" t="s">
+      <c r="O112" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="113" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>258</v>
       </c>
@@ -8225,17 +8742,17 @@
       <c r="K113" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="L113" s="3" t="s">
+      <c r="M113" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M113" s="3" t="s">
+      <c r="N113" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="N113" t="s">
+      <c r="O113" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="114" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>262</v>
       </c>
@@ -8263,17 +8780,17 @@
       <c r="K114" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="L114" s="3" t="s">
+      <c r="M114" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M114" s="3" t="s">
+      <c r="N114" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="N114" t="s">
+      <c r="O114" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="115" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>266</v>
       </c>
@@ -8301,17 +8818,17 @@
       <c r="K115" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="L115" s="3" t="s">
+      <c r="M115" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M115" s="3" t="s">
+      <c r="N115" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="N115" t="s">
+      <c r="O115" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="116" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>799</v>
       </c>
@@ -8334,17 +8851,17 @@
       <c r="K116" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="L116" s="3" t="s">
+      <c r="M116" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M116" s="3" t="s">
+      <c r="N116" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="N116" t="s">
+      <c r="O116" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="117" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>800</v>
       </c>
@@ -8359,17 +8876,17 @@
       <c r="K117" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="L117" s="3" t="s">
+      <c r="M117" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M117" s="3" t="s">
+      <c r="N117" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="N117" t="s">
+      <c r="O117" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="118" spans="1:37" ht="102" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:38" ht="170" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>801</v>
       </c>
@@ -8387,17 +8904,17 @@
       <c r="K118" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="L118" s="3" t="s">
+      <c r="M118" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M118" s="3" t="s">
+      <c r="N118" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="N118" t="s">
+      <c r="O118" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="119" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>270</v>
       </c>
@@ -8420,17 +8937,17 @@
       <c r="K119" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="L119" s="3" t="s">
+      <c r="M119" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M119" s="3" t="s">
+      <c r="N119" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="N119" t="s">
+      <c r="O119" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="120" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>274</v>
       </c>
@@ -8453,17 +8970,17 @@
       <c r="K120" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="L120" s="3" t="s">
+      <c r="M120" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M120" s="3" t="s">
+      <c r="N120" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="N120" t="s">
+      <c r="O120" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="121" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>278</v>
       </c>
@@ -8488,17 +9005,17 @@
       <c r="K121" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="L121" s="3" t="s">
+      <c r="M121" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M121" s="3" t="s">
+      <c r="N121" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="N121" t="s">
+      <c r="O121" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="122" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>282</v>
       </c>
@@ -8521,17 +9038,17 @@
       <c r="K122" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="L122" s="3" t="s">
+      <c r="M122" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M122" s="3" t="s">
+      <c r="N122" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="N122" t="s">
+      <c r="O122" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="123" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>286</v>
       </c>
@@ -8559,17 +9076,17 @@
       <c r="K123" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="L123" s="3" t="s">
+      <c r="M123" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M123" s="3" t="s">
+      <c r="N123" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="N123" t="s">
+      <c r="O123" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="124" spans="1:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>290</v>
       </c>
@@ -8592,17 +9109,17 @@
       <c r="K124" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="L124" s="3" t="s">
+      <c r="M124" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M124" s="3" t="s">
+      <c r="N124" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="N124" t="s">
+      <c r="O124" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="125" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>293</v>
       </c>
@@ -8627,17 +9144,18 @@
       <c r="K125" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="L125" s="3" t="s">
+      <c r="L125" s="4"/>
+      <c r="M125" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M125" s="4" t="s">
+      <c r="N125" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="N125" s="1" t="s">
+      <c r="O125" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="126" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>297</v>
       </c>
@@ -8662,17 +9180,17 @@
       <c r="K126" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="L126" s="3" t="s">
+      <c r="M126" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M126" s="3" t="s">
+      <c r="N126" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="N126" t="s">
+      <c r="O126" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="127" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>301</v>
       </c>
@@ -8697,17 +9215,17 @@
       <c r="K127" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="L127" s="3" t="s">
+      <c r="M127" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M127" s="3" t="s">
+      <c r="N127" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="N127" t="s">
+      <c r="O127" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="128" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>305</v>
       </c>
@@ -8732,16 +9250,15 @@
       <c r="K128" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="L128" s="3" t="s">
+      <c r="M128" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M128" s="3" t="s">
+      <c r="N128" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="N128" t="s">
+      <c r="O128" t="s">
         <v>308</v>
       </c>
-      <c r="O128" s="1"/>
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
@@ -8764,8 +9281,9 @@
       <c r="AI128" s="1"/>
       <c r="AJ128" s="1"/>
       <c r="AK128" s="1"/>
-    </row>
-    <row r="129" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="AL128" s="1"/>
+    </row>
+    <row r="129" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>309</v>
       </c>
@@ -8788,16 +9306,15 @@
       <c r="K129" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="L129" s="3" t="s">
+      <c r="M129" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M129" s="3" t="s">
+      <c r="N129" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="N129" t="s">
+      <c r="O129" t="s">
         <v>312</v>
       </c>
-      <c r="O129" s="1"/>
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
@@ -8820,8 +9337,9 @@
       <c r="AI129" s="1"/>
       <c r="AJ129" s="1"/>
       <c r="AK129" s="1"/>
-    </row>
-    <row r="130" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+      <c r="AL129" s="1"/>
+    </row>
+    <row r="130" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>313</v>
       </c>
@@ -8844,16 +9362,15 @@
       <c r="K130" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="L130" s="3" t="s">
+      <c r="M130" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M130" s="3" t="s">
+      <c r="N130" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="N130" t="s">
+      <c r="O130" t="s">
         <v>316</v>
       </c>
-      <c r="O130" s="1"/>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
@@ -8876,8 +9393,9 @@
       <c r="AI130" s="1"/>
       <c r="AJ130" s="1"/>
       <c r="AK130" s="1"/>
-    </row>
-    <row r="131" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+      <c r="AL130" s="1"/>
+    </row>
+    <row r="131" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>317</v>
       </c>
@@ -8900,16 +9418,15 @@
       <c r="K131" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="L131" s="3" t="s">
+      <c r="M131" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M131" s="3" t="s">
+      <c r="N131" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="N131" t="s">
+      <c r="O131" t="s">
         <v>320</v>
       </c>
-      <c r="O131" s="1"/>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
@@ -8932,8 +9449,9 @@
       <c r="AI131" s="1"/>
       <c r="AJ131" s="1"/>
       <c r="AK131" s="1"/>
-    </row>
-    <row r="132" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+      <c r="AL131" s="1"/>
+    </row>
+    <row r="132" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>321</v>
       </c>
@@ -8956,16 +9474,15 @@
       <c r="K132" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="L132" s="3" t="s">
+      <c r="M132" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M132" s="3" t="s">
+      <c r="N132" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="N132" t="s">
+      <c r="O132" t="s">
         <v>324</v>
       </c>
-      <c r="O132" s="1"/>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
@@ -8988,8 +9505,9 @@
       <c r="AI132" s="1"/>
       <c r="AJ132" s="1"/>
       <c r="AK132" s="1"/>
-    </row>
-    <row r="133" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+      <c r="AL132" s="1"/>
+    </row>
+    <row r="133" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>325</v>
       </c>
@@ -9014,16 +9532,15 @@
       <c r="K133" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="L133" s="3" t="s">
+      <c r="M133" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M133" s="3" t="s">
+      <c r="N133" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="N133" t="s">
+      <c r="O133" t="s">
         <v>328</v>
       </c>
-      <c r="O133" s="1"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
@@ -9046,8 +9563,9 @@
       <c r="AI133" s="1"/>
       <c r="AJ133" s="1"/>
       <c r="AK133" s="1"/>
-    </row>
-    <row r="134" spans="1:37" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AL133" s="1"/>
+    </row>
+    <row r="134" spans="1:38" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>329</v>
       </c>
@@ -9073,16 +9591,16 @@
       <c r="K134" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="L134" s="3" t="s">
+      <c r="L134" s="3"/>
+      <c r="M134" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M134" s="3" t="s">
+      <c r="N134" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="N134" t="s">
+      <c r="O134" t="s">
         <v>332</v>
       </c>
-      <c r="O134" s="5"/>
       <c r="P134" s="5"/>
       <c r="Q134" s="5"/>
       <c r="R134" s="5"/>
@@ -9105,8 +9623,9 @@
       <c r="AI134" s="5"/>
       <c r="AJ134" s="5"/>
       <c r="AK134" s="5"/>
-    </row>
-    <row r="135" spans="1:37" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AL134" s="5"/>
+    </row>
+    <row r="135" spans="1:38" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>333</v>
       </c>
@@ -9134,16 +9653,16 @@
       <c r="K135" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="L135" s="3" t="s">
+      <c r="L135" s="3"/>
+      <c r="M135" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M135" s="3" t="s">
+      <c r="N135" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="N135" t="s">
+      <c r="O135" t="s">
         <v>336</v>
       </c>
-      <c r="O135" s="5"/>
       <c r="P135" s="5"/>
       <c r="Q135" s="5"/>
       <c r="R135" s="5"/>
@@ -9166,8 +9685,9 @@
       <c r="AI135" s="5"/>
       <c r="AJ135" s="5"/>
       <c r="AK135" s="5"/>
-    </row>
-    <row r="136" spans="1:37" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AL135" s="5"/>
+    </row>
+    <row r="136" spans="1:38" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>337</v>
       </c>
@@ -9195,16 +9715,16 @@
       <c r="K136" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="L136" s="3" t="s">
+      <c r="L136" s="3"/>
+      <c r="M136" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M136" s="3" t="s">
+      <c r="N136" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="N136" t="s">
+      <c r="O136" t="s">
         <v>340</v>
       </c>
-      <c r="O136" s="5"/>
       <c r="P136" s="5"/>
       <c r="Q136" s="5"/>
       <c r="R136" s="5"/>
@@ -9227,8 +9747,9 @@
       <c r="AI136" s="5"/>
       <c r="AJ136" s="5"/>
       <c r="AK136" s="5"/>
-    </row>
-    <row r="137" spans="1:37" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AL136" s="5"/>
+    </row>
+    <row r="137" spans="1:38" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>341</v>
       </c>
@@ -9254,16 +9775,16 @@
       <c r="K137" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="L137" s="3" t="s">
+      <c r="L137" s="3"/>
+      <c r="M137" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M137" s="3" t="s">
+      <c r="N137" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="N137" t="s">
+      <c r="O137" t="s">
         <v>344</v>
       </c>
-      <c r="O137" s="5"/>
       <c r="P137" s="5"/>
       <c r="Q137" s="5"/>
       <c r="R137" s="5"/>
@@ -9286,8 +9807,9 @@
       <c r="AI137" s="5"/>
       <c r="AJ137" s="5"/>
       <c r="AK137" s="5"/>
-    </row>
-    <row r="138" spans="1:37" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AL137" s="5"/>
+    </row>
+    <row r="138" spans="1:38" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>345</v>
       </c>
@@ -9315,16 +9837,16 @@
       <c r="K138" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="L138" s="3" t="s">
+      <c r="L138" s="3"/>
+      <c r="M138" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M138" s="3" t="s">
+      <c r="N138" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="N138" t="s">
+      <c r="O138" t="s">
         <v>348</v>
       </c>
-      <c r="O138" s="5"/>
       <c r="P138" s="5"/>
       <c r="Q138" s="5"/>
       <c r="R138" s="5"/>
@@ -9347,8 +9869,9 @@
       <c r="AI138" s="5"/>
       <c r="AJ138" s="5"/>
       <c r="AK138" s="5"/>
-    </row>
-    <row r="139" spans="1:37" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="AL138" s="5"/>
+    </row>
+    <row r="139" spans="1:38" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>349</v>
       </c>
@@ -9376,16 +9899,16 @@
       <c r="K139" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="L139" s="3" t="s">
+      <c r="L139" s="4"/>
+      <c r="M139" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M139" s="4" t="s">
+      <c r="N139" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="N139" s="1" t="s">
+      <c r="O139" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="O139" s="5"/>
       <c r="P139" s="5"/>
       <c r="Q139" s="5"/>
       <c r="R139" s="5"/>
@@ -9408,8 +9931,9 @@
       <c r="AI139" s="5"/>
       <c r="AJ139" s="5"/>
       <c r="AK139" s="5"/>
-    </row>
-    <row r="140" spans="1:37" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AL139" s="5"/>
+    </row>
+    <row r="140" spans="1:38" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>353</v>
       </c>
@@ -9437,16 +9961,16 @@
       <c r="K140" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="L140" s="3" t="s">
+      <c r="L140" s="4"/>
+      <c r="M140" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M140" s="4" t="s">
+      <c r="N140" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="N140" s="1" t="s">
+      <c r="O140" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="O140" s="5"/>
       <c r="P140" s="5"/>
       <c r="Q140" s="5"/>
       <c r="R140" s="5"/>
@@ -9469,8 +9993,9 @@
       <c r="AI140" s="5"/>
       <c r="AJ140" s="5"/>
       <c r="AK140" s="5"/>
-    </row>
-    <row r="141" spans="1:37" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AL140" s="5"/>
+    </row>
+    <row r="141" spans="1:38" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>357</v>
       </c>
@@ -9496,16 +10021,16 @@
       <c r="K141" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="L141" s="4" t="s">
+      <c r="L141" s="4"/>
+      <c r="M141" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="M141" s="4" t="s">
+      <c r="N141" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="N141" s="1" t="s">
+      <c r="O141" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="O141" s="5"/>
       <c r="P141" s="5"/>
       <c r="Q141" s="5"/>
       <c r="R141" s="5"/>
@@ -9528,8 +10053,9 @@
       <c r="AI141" s="5"/>
       <c r="AJ141" s="5"/>
       <c r="AK141" s="5"/>
-    </row>
-    <row r="142" spans="1:37" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="AL141" s="5"/>
+    </row>
+    <row r="142" spans="1:38" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>361</v>
       </c>
@@ -9557,16 +10083,16 @@
       <c r="K142" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="L142" s="3" t="s">
+      <c r="L142" s="4"/>
+      <c r="M142" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M142" s="4" t="s">
+      <c r="N142" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="N142" s="1" t="s">
+      <c r="O142" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="O142" s="5"/>
       <c r="P142" s="5"/>
       <c r="Q142" s="5"/>
       <c r="R142" s="5"/>
@@ -9589,8 +10115,9 @@
       <c r="AI142" s="5"/>
       <c r="AJ142" s="5"/>
       <c r="AK142" s="5"/>
-    </row>
-    <row r="143" spans="1:37" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="AL142" s="5"/>
+    </row>
+    <row r="143" spans="1:38" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>636</v>
       </c>
@@ -9616,16 +10143,16 @@
       <c r="K143" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="L143" s="3" t="s">
+      <c r="L143" s="3"/>
+      <c r="M143" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M143" s="3" t="s">
+      <c r="N143" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="N143" t="s">
+      <c r="O143" t="s">
         <v>998</v>
       </c>
-      <c r="O143" s="5"/>
       <c r="P143" s="5"/>
       <c r="Q143" s="5"/>
       <c r="R143" s="5"/>
@@ -9648,8 +10175,9 @@
       <c r="AI143" s="5"/>
       <c r="AJ143" s="5"/>
       <c r="AK143" s="5"/>
-    </row>
-    <row r="144" spans="1:37" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="AL143" s="5"/>
+    </row>
+    <row r="144" spans="1:38" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>638</v>
       </c>
@@ -9675,16 +10203,16 @@
       <c r="K144" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="L144" s="3" t="s">
+      <c r="L144" s="3"/>
+      <c r="M144" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M144" s="3" t="s">
+      <c r="N144" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="N144" t="s">
+      <c r="O144" t="s">
         <v>1000</v>
       </c>
-      <c r="O144" s="5"/>
       <c r="P144" s="5"/>
       <c r="Q144" s="5"/>
       <c r="R144" s="5"/>
@@ -9707,8 +10235,9 @@
       <c r="AI144" s="5"/>
       <c r="AJ144" s="5"/>
       <c r="AK144" s="5"/>
-    </row>
-    <row r="145" spans="1:37" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="AL144" s="5"/>
+    </row>
+    <row r="145" spans="1:38" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>633</v>
       </c>
@@ -9734,16 +10263,16 @@
       <c r="K145" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="L145" s="3" t="s">
+      <c r="L145" s="3"/>
+      <c r="M145" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M145" s="3" t="s">
+      <c r="N145" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="N145" t="s">
+      <c r="O145" t="s">
         <v>1002</v>
       </c>
-      <c r="O145" s="5"/>
       <c r="P145" s="5"/>
       <c r="Q145" s="5"/>
       <c r="R145" s="5"/>
@@ -9766,8 +10295,9 @@
       <c r="AI145" s="5"/>
       <c r="AJ145" s="5"/>
       <c r="AK145" s="5"/>
-    </row>
-    <row r="146" spans="1:37" ht="85" x14ac:dyDescent="0.2">
+      <c r="AL145" s="5"/>
+    </row>
+    <row r="146" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>365</v>
       </c>
@@ -9795,17 +10325,17 @@
       <c r="K146" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="L146" s="3" t="s">
+      <c r="M146" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M146" s="3" t="s">
+      <c r="N146" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="N146" t="s">
+      <c r="O146" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="147" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>369</v>
       </c>
@@ -9828,17 +10358,17 @@
       <c r="K147" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="L147" s="3" t="s">
+      <c r="M147" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M147" s="3" t="s">
+      <c r="N147" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="N147" t="s">
+      <c r="O147" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="148" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>373</v>
       </c>
@@ -9861,17 +10391,17 @@
       <c r="K148" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="L148" s="3" t="s">
+      <c r="M148" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M148" s="3" t="s">
+      <c r="N148" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="N148" t="s">
+      <c r="O148" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="149" spans="1:37" ht="85" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>377</v>
       </c>
@@ -9896,17 +10426,17 @@
       <c r="K149" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="L149" s="3" t="s">
+      <c r="M149" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M149" s="3" t="s">
+      <c r="N149" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="N149" t="s">
+      <c r="O149" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="150" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>754</v>
       </c>
@@ -9921,17 +10451,17 @@
       <c r="K150" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="L150" s="3" t="s">
+      <c r="M150" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M150" s="3" t="s">
+      <c r="N150" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="N150" t="s">
+      <c r="O150" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="151" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>381</v>
       </c>
@@ -9957,17 +10487,17 @@
       <c r="K151" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="L151" s="3" t="s">
+      <c r="M151" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M151" s="3" t="s">
+      <c r="N151" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="N151" t="s">
+      <c r="O151" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="152" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>704</v>
       </c>
@@ -9982,17 +10512,17 @@
       <c r="K152" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="L152" s="3" t="s">
+      <c r="M152" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M152" s="3" t="s">
+      <c r="N152" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="N152" t="s">
+      <c r="O152" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="153" spans="1:37" ht="153" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:38" ht="153" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>700</v>
       </c>
@@ -10007,17 +10537,17 @@
       <c r="K153" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="L153" s="3" t="s">
+      <c r="M153" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M153" s="3" t="s">
+      <c r="N153" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="N153" t="s">
+      <c r="O153" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="154" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>697</v>
       </c>
@@ -10040,17 +10570,17 @@
       <c r="K154" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="L154" s="3" t="s">
+      <c r="M154" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M154" s="3" t="s">
+      <c r="N154" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="N154" t="s">
+      <c r="O154" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="155" spans="1:37" ht="153" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:38" ht="153" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>752</v>
       </c>
@@ -10065,17 +10595,17 @@
       <c r="K155" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="L155" s="3" t="s">
+      <c r="M155" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M155" s="3" t="s">
+      <c r="N155" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="N155" t="s">
+      <c r="O155" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="156" spans="1:37" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:38" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>827</v>
       </c>
@@ -10103,17 +10633,17 @@
       <c r="K156" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="L156" s="3" t="s">
+      <c r="M156" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="M156" s="3" t="s">
+      <c r="N156" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="N156" t="s">
+      <c r="O156" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="157" spans="1:37" ht="85" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>826</v>
       </c>
@@ -10141,17 +10671,17 @@
       <c r="K157" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="L157" s="3" t="s">
+      <c r="M157" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="M157" s="3" t="s">
+      <c r="N157" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="N157" t="s">
+      <c r="O157" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="158" spans="1:37" ht="221" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:38" ht="221" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>825</v>
       </c>
@@ -10179,17 +10709,17 @@
       <c r="K158" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="L158" s="3" t="s">
+      <c r="M158" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="M158" s="3" t="s">
+      <c r="N158" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="N158" t="s">
+      <c r="O158" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="159" spans="1:37" ht="238" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:38" ht="238" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>823</v>
       </c>
@@ -10217,17 +10747,17 @@
       <c r="K159" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="L159" s="3" t="s">
+      <c r="M159" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="M159" s="3" t="s">
+      <c r="N159" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="N159" t="s">
+      <c r="O159" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="160" spans="1:37" ht="153" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:38" ht="153" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>807</v>
       </c>
@@ -10255,17 +10785,17 @@
       <c r="K160" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="L160" s="3" t="s">
+      <c r="M160" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="M160" s="3" t="s">
+      <c r="N160" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="N160" t="s">
+      <c r="O160" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="161" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>385</v>
       </c>
@@ -10293,17 +10823,17 @@
       <c r="K161" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="L161" s="3" t="s">
+      <c r="M161" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="M161" s="3" t="s">
+      <c r="N161" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="N161" t="s">
+      <c r="O161" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>819</v>
       </c>
@@ -10331,11 +10861,11 @@
       <c r="K162" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="L162" s="3" t="s">
+      <c r="M162" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>817</v>
       </c>
@@ -10363,11 +10893,11 @@
       <c r="K163" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="L163" s="3" t="s">
+      <c r="M163" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>516</v>
       </c>
@@ -10395,17 +10925,17 @@
       <c r="K164" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="L164" s="3" t="s">
+      <c r="M164" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="M164" s="3" t="s">
+      <c r="N164" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="N164" t="s">
+      <c r="O164" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="165" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>845</v>
       </c>
@@ -10433,11 +10963,11 @@
       <c r="K165" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="L165" s="3" t="s">
+      <c r="M165" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>389</v>
       </c>
@@ -10465,17 +10995,17 @@
       <c r="K166" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="L166" s="3" t="s">
+      <c r="M166" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M166" s="3" t="s">
+      <c r="N166" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="N166" t="s">
+      <c r="O166" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>393</v>
       </c>
@@ -10503,17 +11033,18 @@
       <c r="K167" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="L167" s="3" t="s">
+      <c r="L167" s="4"/>
+      <c r="M167" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M167" s="4" t="s">
+      <c r="N167" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="N167" s="1" t="s">
+      <c r="O167" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>397</v>
       </c>
@@ -10541,17 +11072,18 @@
       <c r="K168" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="L168" s="3" t="s">
+      <c r="L168" s="4"/>
+      <c r="M168" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M168" s="4" t="s">
+      <c r="N168" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="N168" s="1" t="s">
+      <c r="O168" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>695</v>
       </c>
@@ -10579,11 +11111,11 @@
       <c r="K169" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="L169" s="3" t="s">
+      <c r="M169" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>788</v>
       </c>
@@ -10611,11 +11143,11 @@
       <c r="K170" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="L170" s="3" t="s">
+      <c r="M170" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>401</v>
       </c>
@@ -10643,17 +11175,18 @@
       <c r="K171" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="L171" s="4" t="s">
+      <c r="L171" s="4"/>
+      <c r="M171" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="M171" s="4" t="s">
+      <c r="N171" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="N171" s="1" t="s">
+      <c r="O171" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>655</v>
       </c>
@@ -10681,11 +11214,11 @@
       <c r="K172" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="L172" s="3" t="s">
+      <c r="M172" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>652</v>
       </c>
@@ -10713,11 +11246,11 @@
       <c r="K173" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="L173" s="3" t="s">
+      <c r="M173" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>405</v>
       </c>
@@ -10745,17 +11278,18 @@
       <c r="K174" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="L174" s="3" t="s">
+      <c r="L174" s="4"/>
+      <c r="M174" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M174" s="4" t="s">
+      <c r="N174" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="N174" s="1" t="s">
+      <c r="O174" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>409</v>
       </c>
@@ -10783,17 +11317,18 @@
       <c r="K175" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="L175" s="3" t="s">
+      <c r="L175" s="4"/>
+      <c r="M175" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M175" s="4" t="s">
+      <c r="N175" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="N175" s="1" t="s">
+      <c r="O175" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>413</v>
       </c>
@@ -10821,17 +11356,18 @@
       <c r="K176" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="L176" s="3" t="s">
+      <c r="L176" s="4"/>
+      <c r="M176" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M176" s="4" t="s">
+      <c r="N176" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="N176" s="1" t="s">
+      <c r="O176" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="177" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>417</v>
       </c>
@@ -10859,17 +11395,18 @@
       <c r="K177" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="L177" s="3" t="s">
+      <c r="L177" s="4"/>
+      <c r="M177" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M177" s="4" t="s">
+      <c r="N177" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="N177" s="1" t="s">
+      <c r="O177" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="178" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>421</v>
       </c>
@@ -10897,17 +11434,18 @@
       <c r="K178" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="L178" s="3" t="s">
+      <c r="L178" s="4"/>
+      <c r="M178" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M178" s="4" t="s">
+      <c r="N178" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="N178" s="1" t="s">
+      <c r="O178" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="179" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>425</v>
       </c>
@@ -10935,17 +11473,18 @@
       <c r="K179" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="L179" s="3" t="s">
+      <c r="L179" s="4"/>
+      <c r="M179" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M179" s="4" t="s">
+      <c r="N179" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="N179" s="1" t="s">
+      <c r="O179" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="180" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>429</v>
       </c>
@@ -10973,17 +11512,18 @@
       <c r="K180" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="L180" s="3" t="s">
+      <c r="L180" s="4"/>
+      <c r="M180" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M180" s="4" t="s">
+      <c r="N180" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="N180" s="1" t="s">
+      <c r="O180" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="181" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>433</v>
       </c>
@@ -11011,17 +11551,18 @@
       <c r="K181" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="L181" s="3" t="s">
+      <c r="L181" s="4"/>
+      <c r="M181" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M181" s="4" t="s">
+      <c r="N181" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N181" s="1" t="s">
+      <c r="O181" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="182" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>437</v>
       </c>
@@ -11044,17 +11585,17 @@
       <c r="K182" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="L182" s="3" t="s">
+      <c r="M182" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M182" s="3" t="s">
+      <c r="N182" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="N182" t="s">
+      <c r="O182" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="183" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>441</v>
       </c>
@@ -11077,17 +11618,17 @@
       <c r="K183" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="L183" s="3" t="s">
+      <c r="M183" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M183" s="3" t="s">
+      <c r="N183" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="N183" t="s">
+      <c r="O183" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="184" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>445</v>
       </c>
@@ -11110,17 +11651,17 @@
       <c r="K184" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="L184" s="3" t="s">
+      <c r="M184" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M184" s="3" t="s">
+      <c r="N184" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="N184" t="s">
+      <c r="O184" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="185" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>789</v>
       </c>
@@ -11143,11 +11684,11 @@
       <c r="K185" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="L185" s="3" t="s">
+      <c r="M185" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="186" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>694</v>
       </c>
@@ -11170,11 +11711,11 @@
       <c r="K186" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="L186" s="3" t="s">
+      <c r="M186" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="187" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>747</v>
       </c>
@@ -11197,11 +11738,11 @@
       <c r="K187" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="L187" s="3" t="s">
+      <c r="M187" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="188" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>449</v>
       </c>
@@ -11224,17 +11765,17 @@
       <c r="K188" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="L188" s="3" t="s">
+      <c r="M188" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M188" s="3" t="s">
+      <c r="N188" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="N188" t="s">
+      <c r="O188" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="189" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>551</v>
       </c>
@@ -11257,17 +11798,18 @@
       <c r="K189" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="L189" s="6" t="s">
+      <c r="L189" s="6"/>
+      <c r="M189" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="M189" s="6" t="s">
+      <c r="N189" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="N189" s="5" t="s">
+      <c r="O189" s="5" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="190" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>551</v>
       </c>
@@ -11290,11 +11832,11 @@
       <c r="K190" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="L190" s="3" t="s">
+      <c r="M190" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="191" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
         <v>555</v>
       </c>
@@ -11317,17 +11859,18 @@
       <c r="K191" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="L191" s="6" t="s">
+      <c r="L191" s="6"/>
+      <c r="M191" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="M191" s="6" t="s">
+      <c r="N191" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="N191" s="5" t="s">
+      <c r="O191" s="5" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="192" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>555</v>
       </c>
@@ -11350,11 +11893,11 @@
       <c r="K192" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="L192" s="3" t="s">
+      <c r="M192" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="193" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>529</v>
       </c>
@@ -11377,17 +11920,18 @@
       <c r="K193" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="L193" s="6" t="s">
+      <c r="L193" s="6"/>
+      <c r="M193" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="M193" s="6" t="s">
+      <c r="N193" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="N193" s="5" t="s">
+      <c r="O193" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="194" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
         <v>533</v>
       </c>
@@ -11410,17 +11954,18 @@
       <c r="K194" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="L194" s="6" t="s">
+      <c r="L194" s="6"/>
+      <c r="M194" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="M194" s="6" t="s">
+      <c r="N194" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="N194" s="5" t="s">
+      <c r="O194" s="5" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="195" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
         <v>536</v>
       </c>
@@ -11443,17 +11988,18 @@
       <c r="K195" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="L195" s="6" t="s">
+      <c r="L195" s="6"/>
+      <c r="M195" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="M195" s="6" t="s">
+      <c r="N195" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="N195" s="5" t="s">
+      <c r="O195" s="5" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="196" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>749</v>
       </c>
@@ -11476,11 +12022,11 @@
       <c r="K196" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="L196" s="3" t="s">
+      <c r="M196" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="197" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>453</v>
       </c>
@@ -11508,17 +12054,17 @@
       <c r="K197" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="L197" s="3" t="s">
+      <c r="M197" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M197" s="3" t="s">
+      <c r="N197" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="N197" t="s">
+      <c r="O197" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="198" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>457</v>
       </c>
@@ -11546,17 +12092,17 @@
       <c r="K198" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="L198" s="3" t="s">
+      <c r="M198" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M198" s="3" t="s">
+      <c r="N198" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="N198" t="s">
+      <c r="O198" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="199" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>649</v>
       </c>
@@ -11584,11 +12130,11 @@
       <c r="K199" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="L199" s="3" t="s">
+      <c r="M199" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>815</v>
       </c>
@@ -11616,11 +12162,11 @@
       <c r="K200" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="L200" s="3" t="s">
+      <c r="M200" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="201" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>809</v>
       </c>
@@ -11648,11 +12194,11 @@
       <c r="K201" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="L201" s="3" t="s">
+      <c r="M201" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="202" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>813</v>
       </c>
@@ -11680,11 +12226,11 @@
       <c r="K202" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="L202" s="3" t="s">
+      <c r="M202" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="203" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
         <v>539</v>
       </c>
@@ -11707,17 +12253,18 @@
       <c r="K203" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="L203" s="6" t="s">
+      <c r="L203" s="6"/>
+      <c r="M203" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="M203" s="6" t="s">
+      <c r="N203" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="N203" s="5" t="s">
+      <c r="O203" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="204" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
         <v>543</v>
       </c>
@@ -11740,17 +12287,18 @@
       <c r="K204" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="L204" s="6" t="s">
+      <c r="L204" s="6"/>
+      <c r="M204" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="M204" s="6" t="s">
+      <c r="N204" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="N204" s="5" t="s">
+      <c r="O204" s="5" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="205" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
         <v>547</v>
       </c>
@@ -11773,17 +12321,18 @@
       <c r="K205" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="L205" s="6" t="s">
+      <c r="L205" s="6"/>
+      <c r="M205" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="M205" s="6" t="s">
+      <c r="N205" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="N205" s="5" t="s">
+      <c r="O205" s="5" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="206" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>727</v>
       </c>
@@ -11811,11 +12360,11 @@
       <c r="K206" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="L206" s="3" t="s">
+      <c r="M206" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>647</v>
       </c>
@@ -11843,11 +12392,11 @@
       <c r="K207" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="L207" s="3" t="s">
+      <c r="M207" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>461</v>
       </c>
@@ -11875,17 +12424,17 @@
       <c r="K208" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="L208" s="3" t="s">
+      <c r="M208" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M208" s="3" t="s">
+      <c r="N208" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="N208" t="s">
+      <c r="O208" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="209" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>508</v>
       </c>
@@ -11913,17 +12462,17 @@
       <c r="K209" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="L209" s="3" t="s">
+      <c r="M209" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M209" s="3" t="s">
+      <c r="N209" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="N209" t="s">
+      <c r="O209" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="210" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>690</v>
       </c>
@@ -11951,11 +12500,11 @@
       <c r="K210" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="L210" s="3" t="s">
+      <c r="M210" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>687</v>
       </c>
@@ -11983,11 +12532,11 @@
       <c r="K211" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="L211" s="3" t="s">
+      <c r="M211" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>465</v>
       </c>
@@ -12015,17 +12564,17 @@
       <c r="K212" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="L212" s="3" t="s">
+      <c r="M212" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M212" s="3" t="s">
+      <c r="N212" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="N212" t="s">
+      <c r="O212" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="213" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>465</v>
       </c>
@@ -12053,11 +12602,11 @@
       <c r="K213" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="L213" s="3" t="s">
+      <c r="M213" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>684</v>
       </c>
@@ -12085,11 +12634,11 @@
       <c r="K214" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="L214" s="3" t="s">
+      <c r="M214" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>469</v>
       </c>
@@ -12117,17 +12666,17 @@
       <c r="K215" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="L215" s="3" t="s">
+      <c r="M215" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="M215" s="3" t="s">
+      <c r="N215" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="N215" t="s">
+      <c r="O215" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="216" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>744</v>
       </c>
@@ -12150,11 +12699,11 @@
       <c r="K216" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="L216" s="3" t="s">
+      <c r="M216" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="217" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>681</v>
       </c>
@@ -12177,11 +12726,11 @@
       <c r="K217" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="L217" s="3" t="s">
+      <c r="M217" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="218" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>742</v>
       </c>
@@ -12206,11 +12755,11 @@
       <c r="K218" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="L218" s="3" t="s">
+      <c r="M218" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="219" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>724</v>
       </c>
@@ -12238,11 +12787,11 @@
       <c r="K219" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="L219" s="3" t="s">
+      <c r="M219" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="220" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>740</v>
       </c>
@@ -12270,11 +12819,11 @@
       <c r="K220" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="L220" s="3" t="s">
+      <c r="M220" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="221" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>473</v>
       </c>
@@ -12297,17 +12846,17 @@
       <c r="K221" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="L221" s="3" t="s">
+      <c r="M221" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M221" s="3" t="s">
+      <c r="N221" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="N221" t="s">
+      <c r="O221" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="222" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>477</v>
       </c>
@@ -12332,17 +12881,17 @@
       <c r="K222" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="L222" s="3" t="s">
+      <c r="M222" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="M222" s="3" t="s">
+      <c r="N222" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="N222" t="s">
+      <c r="O222" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="223" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>738</v>
       </c>
@@ -12365,11 +12914,11 @@
       <c r="K223" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="L223" s="3" t="s">
+      <c r="M223" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="224" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>736</v>
       </c>
@@ -12392,11 +12941,11 @@
       <c r="K224" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="L224" s="3" t="s">
+      <c r="M224" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="225" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>735</v>
       </c>
@@ -12419,11 +12968,11 @@
       <c r="K225" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="L225" s="3" t="s">
+      <c r="M225" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="226" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>480</v>
       </c>
@@ -12451,17 +13000,17 @@
       <c r="K226" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="L226" s="3" t="s">
+      <c r="M226" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M226" s="3" t="s">
+      <c r="N226" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="N226" t="s">
+      <c r="O226" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="227" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>782</v>
       </c>
@@ -12489,11 +13038,11 @@
       <c r="K227" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="L227" s="3" t="s">
+      <c r="M227" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>811</v>
       </c>
@@ -12521,11 +13070,11 @@
       <c r="K228" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="L228" s="3" t="s">
+      <c r="M228" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="229" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>829</v>
       </c>
@@ -12553,11 +13102,11 @@
       <c r="K229" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="L229" s="3" t="s">
+      <c r="M229" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="230" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>484</v>
       </c>
@@ -12585,17 +13134,17 @@
       <c r="K230" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="L230" s="3" t="s">
+      <c r="M230" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M230" s="3" t="s">
+      <c r="N230" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="N230" t="s">
+      <c r="O230" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="231" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>512</v>
       </c>
@@ -12626,17 +13175,17 @@
       <c r="K231" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="L231" s="3" t="s">
+      <c r="M231" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M231" s="3" t="s">
+      <c r="N231" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="N231" t="s">
+      <c r="O231" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="232" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>680</v>
       </c>
@@ -12659,11 +13208,11 @@
       <c r="K232" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="L232" s="3" t="s">
+      <c r="M232" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>677</v>
       </c>
@@ -12686,11 +13235,11 @@
       <c r="K233" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="L233" s="3" t="s">
+      <c r="M233" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>785</v>
       </c>
@@ -12718,11 +13267,11 @@
       <c r="K234" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="L234" s="3" t="s">
+      <c r="M234" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>672</v>
       </c>
@@ -12750,11 +13299,11 @@
       <c r="K235" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="L235" s="3" t="s">
+      <c r="M235" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>783</v>
       </c>
@@ -12782,11 +13331,11 @@
       <c r="K236" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="L236" s="3" t="s">
+      <c r="M236" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>675</v>
       </c>
@@ -12814,11 +13363,11 @@
       <c r="K237" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="L237" s="3" t="s">
+      <c r="M237" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" s="10" t="s">
         <v>843</v>
       </c>
@@ -12831,7 +13380,7 @@
       <c r="I242" s="9"/>
       <c r="J242" s="9"/>
     </row>
-    <row r="243" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:12" ht="68" x14ac:dyDescent="0.2">
       <c r="B243" s="8" t="s">
         <v>840</v>
       </c>
@@ -12848,8 +13397,9 @@
       <c r="I243" s="8"/>
       <c r="J243" s="8"/>
       <c r="K243" s="8"/>
-    </row>
-    <row r="244" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L243" s="8"/>
+    </row>
+    <row r="244" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B244" s="3" t="s">
         <v>835</v>
       </c>
@@ -12863,7 +13413,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="245" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B245" s="3" t="s">
         <v>836</v>
       </c>
@@ -12877,7 +13427,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="246" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B246" s="3" t="s">
         <v>837</v>
       </c>
@@ -12894,6 +13444,124 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FACEE9-97D1-804D-9042-17D59375B5B9}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/app/data/Reference Data for CS Mid Tier and Higher Tier Options and Capital Items.xlsx
+++ b/app/data/Reference Data for CS Mid Tier and Higher Tier Options and Capital Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattfielding/projects/defra/local-nature-recovery-prototype/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF8EF25-3D3D-B44E-A46D-AD8A26A2B032}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46D25AC-1AD7-CA4B-A383-652858381792}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="1020" windowWidth="50820" windowHeight="26200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54840" yWindow="8100" windowWidth="24460" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grants" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="1047">
   <si>
     <t>Option</t>
   </si>
@@ -2810,9 +2810,6 @@
 trees forming distinctive features in the landscape
 trees providing valuable habitat
 areas under tree canopies free from scrub, soil compaction, or anything which threatens the tree’s longevity</t>
-  </si>
-  <si>
-    <t>priorty</t>
   </si>
   <si>
     <t>https://www.gov.uk/countryside-stewardship-grants/hedgerow-supplement-substantial-pre-work-bn9</t>
@@ -3150,9 +3147,6 @@
   </si>
   <si>
     <t>package</t>
-  </si>
-  <si>
-    <t>polinators, water</t>
   </si>
   <si>
     <r>
@@ -3593,6 +3587,18 @@
   </si>
   <si>
     <t xml:space="preserve">AB1 Nectar flower mix </t>
+  </si>
+  <si>
+    <t>Pollinators and Wildlife,Improving Water Quality</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Pollinators and Wildlife</t>
+  </si>
+  <si>
+    <t>priority</t>
   </si>
 </sst>
 </file>
@@ -4453,8 +4459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL246"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4502,13 +4508,13 @@
         <v>867</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>924</v>
+        <v>1046</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>851</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>849</v>
@@ -4551,8 +4557,8 @@
       <c r="K2" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>1024</v>
+      <c r="L2" t="s">
+        <v>1043</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>0</v>
@@ -4592,8 +4598,8 @@
       <c r="K3" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>1024</v>
+      <c r="L3" t="s">
+        <v>1044</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>0</v>
@@ -4633,8 +4639,8 @@
       <c r="K4" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>1024</v>
+      <c r="L4" t="s">
+        <v>1045</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>0</v>
@@ -4670,6 +4676,9 @@
       </c>
       <c r="H5" s="3" t="s">
         <v>920</v>
+      </c>
+      <c r="J5" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>568</v>
@@ -5458,7 +5467,7 @@
         <v>923</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -5517,7 +5526,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>578</v>
@@ -5555,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>579</v>
@@ -5593,7 +5602,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>579</v>
@@ -5631,7 +5640,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>580</v>
@@ -5669,7 +5678,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>581</v>
@@ -5707,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>580</v>
@@ -5745,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>578</v>
@@ -5783,7 +5792,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>578</v>
@@ -5821,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>578</v>
@@ -5859,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>579</v>
@@ -5897,7 +5906,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>579</v>
@@ -5935,7 +5944,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>582</v>
@@ -5973,7 +5982,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>579</v>
@@ -6011,7 +6020,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>579</v>
@@ -6020,10 +6029,10 @@
         <v>605</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -6061,10 +6070,10 @@
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="O41" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="1" customFormat="1" ht="204" x14ac:dyDescent="0.2">
@@ -6102,10 +6111,10 @@
         <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="O42" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="340" x14ac:dyDescent="0.2">
@@ -6143,10 +6152,10 @@
         <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="O43" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -6184,10 +6193,10 @@
         <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="O44" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -6222,10 +6231,10 @@
         <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="O45" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -6260,10 +6269,10 @@
         <v>604</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="O46" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -6298,10 +6307,10 @@
         <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O47" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -6359,7 +6368,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>583</v>
@@ -6397,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>629</v>
@@ -6406,10 +6415,10 @@
         <v>605</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="O50" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -6442,10 +6451,10 @@
         <v>605</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="O51" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -6469,7 +6478,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>646</v>
@@ -6506,7 +6515,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>797</v>
@@ -6543,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>584</v>
@@ -6581,7 +6590,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>583</v>
@@ -6619,7 +6628,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>585</v>
@@ -6657,7 +6666,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K57" s="6" t="s">
         <v>583</v>
@@ -6696,7 +6705,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>646</v>
@@ -6705,10 +6714,10 @@
         <v>605</v>
       </c>
       <c r="N58" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="O58" t="s">
         <v>948</v>
-      </c>
-      <c r="O58" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -6734,7 +6743,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>774</v>
@@ -6743,10 +6752,10 @@
         <v>605</v>
       </c>
       <c r="N59" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="O59" t="s">
         <v>950</v>
-      </c>
-      <c r="O59" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -6772,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>774</v>
@@ -6781,10 +6790,10 @@
         <v>605</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="O60" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -6810,7 +6819,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>629</v>
@@ -6819,10 +6828,10 @@
         <v>605</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="O61" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -6844,10 +6853,10 @@
         <v>605</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="O62" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -6869,10 +6878,10 @@
         <v>605</v>
       </c>
       <c r="N63" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="O63" t="s">
         <v>957</v>
-      </c>
-      <c r="O63" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -6902,10 +6911,10 @@
         <v>605</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="O64" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="136" x14ac:dyDescent="0.2">
@@ -6927,10 +6936,10 @@
         <v>605</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="O65" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -7042,10 +7051,10 @@
         <v>0</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O68" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -7080,10 +7089,10 @@
         <v>0</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="O69" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -7118,10 +7127,10 @@
         <v>0</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="O70" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -7156,10 +7165,10 @@
         <v>0</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="O71" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -7505,10 +7514,10 @@
         <v>0</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="O80" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -7543,10 +7552,10 @@
         <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="O81" t="s">
         <v>973</v>
-      </c>
-      <c r="O81" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -7607,10 +7616,10 @@
         <v>605</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -7640,10 +7649,10 @@
         <v>605</v>
       </c>
       <c r="N84" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="O84" s="1" t="s">
         <v>975</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -7906,10 +7915,10 @@
         <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O91" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="92" spans="1:15" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -8029,10 +8038,10 @@
         <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="O94" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="289" x14ac:dyDescent="0.2">
@@ -8067,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="O95" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="289" x14ac:dyDescent="0.2">
@@ -8105,10 +8114,10 @@
         <v>0</v>
       </c>
       <c r="N96" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="O96" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -8138,10 +8147,10 @@
         <v>605</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="O97" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -8174,10 +8183,10 @@
         <v>605</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="O98" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -8376,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
@@ -8417,7 +8426,7 @@
         <v>1</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
@@ -8458,7 +8467,7 @@
         <v>1</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
@@ -8855,10 +8864,10 @@
         <v>605</v>
       </c>
       <c r="N116" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="O116" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="117" spans="1:38" ht="34" x14ac:dyDescent="0.2">
@@ -8880,10 +8889,10 @@
         <v>605</v>
       </c>
       <c r="N117" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="O117" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="118" spans="1:38" ht="170" x14ac:dyDescent="0.2">
@@ -8908,10 +8917,10 @@
         <v>605</v>
       </c>
       <c r="N118" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="O118" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="119" spans="1:38" ht="85" x14ac:dyDescent="0.2">
@@ -9071,7 +9080,7 @@
         <v>1</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K123" s="3" t="s">
         <v>601</v>
@@ -10148,10 +10157,10 @@
         <v>605</v>
       </c>
       <c r="N143" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="O143" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="P143" s="5"/>
       <c r="Q143" s="5"/>
@@ -10208,10 +10217,10 @@
         <v>605</v>
       </c>
       <c r="N144" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="O144" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="P144" s="5"/>
       <c r="Q144" s="5"/>
@@ -10268,10 +10277,10 @@
         <v>605</v>
       </c>
       <c r="N145" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O145" t="s">
         <v>1001</v>
-      </c>
-      <c r="O145" t="s">
-        <v>1002</v>
       </c>
       <c r="P145" s="5"/>
       <c r="Q145" s="5"/>
@@ -10320,7 +10329,7 @@
         <v>1</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K146" s="3" t="s">
         <v>601</v>
@@ -10455,10 +10464,10 @@
         <v>605</v>
       </c>
       <c r="N150" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="O150" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="151" spans="1:38" ht="68" x14ac:dyDescent="0.2">
@@ -10516,10 +10525,10 @@
         <v>605</v>
       </c>
       <c r="N152" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O152" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="153" spans="1:38" ht="153" x14ac:dyDescent="0.2">
@@ -10541,10 +10550,10 @@
         <v>605</v>
       </c>
       <c r="N153" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="O153" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="154" spans="1:38" ht="34" x14ac:dyDescent="0.2">
@@ -10574,10 +10583,10 @@
         <v>605</v>
       </c>
       <c r="N154" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="O154" t="s">
         <v>1009</v>
-      </c>
-      <c r="O154" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="155" spans="1:38" ht="153" x14ac:dyDescent="0.2">
@@ -10599,10 +10608,10 @@
         <v>605</v>
       </c>
       <c r="N155" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="O155" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="156" spans="1:38" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -10637,10 +10646,10 @@
         <v>604</v>
       </c>
       <c r="N156" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O156" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="157" spans="1:38" ht="85" x14ac:dyDescent="0.2">
@@ -10675,10 +10684,10 @@
         <v>604</v>
       </c>
       <c r="N157" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O157" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="158" spans="1:38" ht="221" x14ac:dyDescent="0.2">
@@ -10713,10 +10722,10 @@
         <v>604</v>
       </c>
       <c r="N158" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O158" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="159" spans="1:38" ht="238" x14ac:dyDescent="0.2">
@@ -10751,10 +10760,10 @@
         <v>604</v>
       </c>
       <c r="N159" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="O159" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="160" spans="1:38" ht="153" x14ac:dyDescent="0.2">
@@ -10789,10 +10798,10 @@
         <v>604</v>
       </c>
       <c r="N160" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="O160" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="161" spans="1:15" ht="119" x14ac:dyDescent="0.2">
@@ -12782,7 +12791,7 @@
         <v>1</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K219" s="3" t="s">
         <v>726</v>
@@ -12814,7 +12823,7 @@
         <v>1</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K220" s="3" t="s">
         <v>726</v>
@@ -13167,10 +13176,10 @@
         <v>0.01</v>
       </c>
       <c r="H231" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="I231" s="3" t="s">
         <v>945</v>
-      </c>
-      <c r="I231" s="3" t="s">
-        <v>946</v>
       </c>
       <c r="K231" s="3" t="s">
         <v>674</v>
@@ -13462,102 +13471,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/Reference Data for CS Mid Tier and Higher Tier Options and Capital Items.xlsx
+++ b/app/data/Reference Data for CS Mid Tier and Higher Tier Options and Capital Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattfielding/projects/defra/local-nature-recovery-prototype/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46D25AC-1AD7-CA4B-A383-652858381792}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB33FCBF-E1FA-D045-9A1C-CBCA401757BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="54840" yWindow="8100" windowWidth="24460" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
